--- a/20190401 Base de tiendas WM y SA.xlsx
+++ b/20190401 Base de tiendas WM y SA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Desktop\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosolorzanobaez/Desktop/PREWORK_MASB/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73C98F7-476C-4B9A-87E4-534E5E379AF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8365B124-F5CF-D445-B9B0-056896457CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26020" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WALMART" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WALMART!$A$1:$J$278</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1475,6 +1485,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1955,10 +1968,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2344,56 +2357,56 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="12" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4156</v>
       </c>
@@ -2415,17 +2428,17 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
-        <v>-110343084</v>
-      </c>
-      <c r="I2" s="1">
-        <v>24118732</v>
+      <c r="H2" s="2">
+        <v>-110.343084</v>
+      </c>
+      <c r="I2" s="2">
+        <v>24.118732000000001</v>
       </c>
       <c r="J2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1724</v>
       </c>
@@ -2447,17 +2460,17 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1">
-        <v>-99054728</v>
-      </c>
-      <c r="I3" s="1">
-        <v>19789880</v>
+      <c r="H3" s="2">
+        <v>-99.054727999999997</v>
+      </c>
+      <c r="I3" s="2">
+        <v>19.78988</v>
       </c>
       <c r="J3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5791</v>
       </c>
@@ -2479,17 +2492,17 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1">
-        <v>-99699316</v>
-      </c>
-      <c r="I4" s="1">
-        <v>19287137</v>
+      <c r="H4" s="2">
+        <v>-99.699315999999996</v>
+      </c>
+      <c r="I4" s="2">
+        <v>19.287137000000001</v>
       </c>
       <c r="J4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1686</v>
       </c>
@@ -2511,17 +2524,17 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1">
-        <v>-103411119</v>
-      </c>
-      <c r="I5" s="1">
-        <v>20744996</v>
+      <c r="H5" s="2">
+        <v>-103.411119</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20.744996</v>
       </c>
       <c r="J5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3928</v>
       </c>
@@ -2543,17 +2556,17 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
-        <v>-103449000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>20659000</v>
+      <c r="H6" s="2">
+        <v>-103.449</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20.658999999999999</v>
       </c>
       <c r="J6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3055</v>
       </c>
@@ -2575,17 +2588,17 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1">
-        <v>-103345083</v>
-      </c>
-      <c r="I7" s="1">
-        <v>20719685</v>
+      <c r="H7" s="2">
+        <v>-103.345083</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20.719684999999998</v>
       </c>
       <c r="J7" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3956</v>
       </c>
@@ -2607,17 +2620,17 @@
       <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1">
-        <v>-103455404</v>
-      </c>
-      <c r="I8" s="1">
-        <v>20776893</v>
+      <c r="H8" s="2">
+        <v>-103.455404</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20.776893000000001</v>
       </c>
       <c r="J8" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2325</v>
       </c>
@@ -2639,17 +2652,17 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1">
-        <v>-102590717</v>
-      </c>
-      <c r="I9" s="1">
-        <v>22748780</v>
+      <c r="H9" s="2">
+        <v>-102.590717</v>
+      </c>
+      <c r="I9" s="2">
+        <v>22.74878</v>
       </c>
       <c r="J9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3893</v>
       </c>
@@ -2671,17 +2684,17 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1">
-        <v>-96907407</v>
-      </c>
-      <c r="I10" s="1">
-        <v>19541890</v>
+      <c r="H10" s="2">
+        <v>-96.907407000000006</v>
+      </c>
+      <c r="I10" s="2">
+        <v>19.541889999999999</v>
       </c>
       <c r="J10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2540</v>
       </c>
@@ -2703,17 +2716,17 @@
       <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1">
-        <v>-99134833</v>
-      </c>
-      <c r="I11" s="1">
-        <v>23740284</v>
+      <c r="H11" s="2">
+        <v>-99.134833</v>
+      </c>
+      <c r="I11" s="2">
+        <v>23.740283999999999</v>
       </c>
       <c r="J11" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4122</v>
       </c>
@@ -2735,17 +2748,17 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1">
-        <v>-96192137</v>
-      </c>
-      <c r="I12" s="1">
-        <v>19213462</v>
+      <c r="H12" s="2">
+        <v>-96.192137000000002</v>
+      </c>
+      <c r="I12" s="2">
+        <v>19.213462</v>
       </c>
       <c r="J12" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1202</v>
       </c>
@@ -2767,17 +2780,17 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="1">
-        <v>-98953462</v>
-      </c>
-      <c r="I13" s="1">
-        <v>19299400</v>
+      <c r="H13" s="2">
+        <v>-98.953462000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>19.299399999999999</v>
       </c>
       <c r="J13" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2050</v>
       </c>
@@ -2799,17 +2812,17 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1">
-        <v>-102037961</v>
-      </c>
-      <c r="I14" s="1">
-        <v>19425560</v>
+      <c r="H14" s="2">
+        <v>-102.037961</v>
+      </c>
+      <c r="I14" s="2">
+        <v>19.425560000000001</v>
       </c>
       <c r="J14" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3127</v>
       </c>
@@ -2831,17 +2844,17 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1">
-        <v>-93076700</v>
-      </c>
-      <c r="I15" s="1">
-        <v>16751500</v>
+      <c r="H15" s="2">
+        <v>-93.076700000000002</v>
+      </c>
+      <c r="I15" s="2">
+        <v>16.7515</v>
       </c>
       <c r="J15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2218</v>
       </c>
@@ -2863,17 +2876,17 @@
       <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="1">
-        <v>-97433461</v>
-      </c>
-      <c r="I16" s="1">
-        <v>20947793</v>
+      <c r="H16" s="2">
+        <v>-97.433460999999994</v>
+      </c>
+      <c r="I16" s="2">
+        <v>20.947793000000001</v>
       </c>
       <c r="J16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3622</v>
       </c>
@@ -2895,17 +2908,17 @@
       <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1">
-        <v>-103397353</v>
-      </c>
-      <c r="I17" s="1">
-        <v>25507439</v>
+      <c r="H17" s="2">
+        <v>-103.397353</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25.507439000000002</v>
       </c>
       <c r="J17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3211</v>
       </c>
@@ -2927,17 +2940,17 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1">
-        <v>-103413819</v>
-      </c>
-      <c r="I18" s="1">
-        <v>25576305</v>
+      <c r="H18" s="2">
+        <v>-103.413819</v>
+      </c>
+      <c r="I18" s="2">
+        <v>25.576305000000001</v>
       </c>
       <c r="J18" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3113</v>
       </c>
@@ -2959,17 +2972,17 @@
       <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1">
-        <v>-103274609</v>
-      </c>
-      <c r="I19" s="1">
-        <v>20639765</v>
+      <c r="H19" s="2">
+        <v>-103.274609</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20.639765000000001</v>
       </c>
       <c r="J19" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2343</v>
       </c>
@@ -2991,17 +3004,17 @@
       <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="1">
-        <v>-99639369</v>
-      </c>
-      <c r="I20" s="1">
-        <v>19280955</v>
+      <c r="H20" s="2">
+        <v>-99.639369000000002</v>
+      </c>
+      <c r="I20" s="2">
+        <v>19.280954999999999</v>
       </c>
       <c r="J20" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5825</v>
       </c>
@@ -3023,17 +3036,17 @@
       <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1">
-        <v>-99634353</v>
-      </c>
-      <c r="I21" s="1">
-        <v>19307819</v>
+      <c r="H21" s="2">
+        <v>-99.634353000000004</v>
+      </c>
+      <c r="I21" s="2">
+        <v>19.307818999999999</v>
       </c>
       <c r="J21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1169</v>
       </c>
@@ -3055,17 +3068,17 @@
       <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="1">
-        <v>-99209048</v>
-      </c>
-      <c r="I22" s="1">
-        <v>19546966</v>
+      <c r="H22" s="2">
+        <v>-99.209047999999996</v>
+      </c>
+      <c r="I22" s="2">
+        <v>19.546966000000001</v>
       </c>
       <c r="J22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2041</v>
       </c>
@@ -3087,17 +3100,17 @@
       <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="1">
-        <v>-99192224</v>
-      </c>
-      <c r="I23" s="1">
-        <v>19554990</v>
+      <c r="H23" s="2">
+        <v>-99.192223999999996</v>
+      </c>
+      <c r="I23" s="2">
+        <v>19.55499</v>
       </c>
       <c r="J23" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2023</v>
       </c>
@@ -3119,17 +3132,17 @@
       <c r="G24" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="1">
-        <v>-116934604</v>
-      </c>
-      <c r="I24" s="1">
-        <v>32495736</v>
+      <c r="H24" s="2">
+        <v>-116.93460399999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>32.495736000000001</v>
       </c>
       <c r="J24" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3664</v>
       </c>
@@ -3151,17 +3164,17 @@
       <c r="G25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1">
-        <v>-116945000</v>
-      </c>
-      <c r="I25" s="1">
-        <v>32488200</v>
+      <c r="H25" s="2">
+        <v>-116.94499999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>32.488199999999999</v>
       </c>
       <c r="J25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1616</v>
       </c>
@@ -3183,17 +3196,17 @@
       <c r="G26" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="1">
-        <v>-117000210</v>
-      </c>
-      <c r="I26" s="1">
-        <v>32474796</v>
+      <c r="H26" s="2">
+        <v>-117.00021</v>
+      </c>
+      <c r="I26" s="2">
+        <v>32.474795999999998</v>
       </c>
       <c r="J26" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4109</v>
       </c>
@@ -3215,17 +3228,17 @@
       <c r="G27" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="1">
-        <v>-98910330</v>
-      </c>
-      <c r="I27" s="1">
-        <v>19429040</v>
+      <c r="H27" s="2">
+        <v>-98.910330000000002</v>
+      </c>
+      <c r="I27" s="2">
+        <v>19.429040000000001</v>
       </c>
       <c r="J27" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3257</v>
       </c>
@@ -3247,17 +3260,17 @@
       <c r="G28" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="1">
-        <v>-102777901</v>
-      </c>
-      <c r="I28" s="1">
-        <v>20808274</v>
+      <c r="H28" s="2">
+        <v>-102.777901</v>
+      </c>
+      <c r="I28" s="2">
+        <v>20.808274000000001</v>
       </c>
       <c r="J28" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1171</v>
       </c>
@@ -3279,17 +3292,17 @@
       <c r="G29" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="1">
-        <v>-98980206</v>
-      </c>
-      <c r="I29" s="1">
-        <v>19698952</v>
+      <c r="H29" s="2">
+        <v>-98.980205999999995</v>
+      </c>
+      <c r="I29" s="2">
+        <v>19.698951999999998</v>
       </c>
       <c r="J29" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3016</v>
       </c>
@@ -3311,17 +3324,17 @@
       <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="1">
-        <v>-99039600</v>
-      </c>
-      <c r="I30" s="1">
-        <v>19617075</v>
+      <c r="H30" s="2">
+        <v>-99.039599999999993</v>
+      </c>
+      <c r="I30" s="2">
+        <v>19.617075</v>
       </c>
       <c r="J30" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4072</v>
       </c>
@@ -3343,17 +3356,17 @@
       <c r="G31" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="1">
-        <v>-92283208</v>
-      </c>
-      <c r="I31" s="1">
-        <v>14874482</v>
+      <c r="H31" s="2">
+        <v>-92.283208000000002</v>
+      </c>
+      <c r="I31" s="2">
+        <v>14.874482</v>
       </c>
       <c r="J31" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1902</v>
       </c>
@@ -3375,17 +3388,17 @@
       <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="1">
-        <v>-97879900</v>
-      </c>
-      <c r="I32" s="1">
-        <v>22297349</v>
+      <c r="H32" s="2">
+        <v>-97.879900000000006</v>
+      </c>
+      <c r="I32" s="2">
+        <v>22.297349000000001</v>
       </c>
       <c r="J32" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1205</v>
       </c>
@@ -3407,17 +3420,17 @@
       <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="1">
-        <v>-97867711</v>
-      </c>
-      <c r="I33" s="1">
-        <v>22230357</v>
+      <c r="H33" s="2">
+        <v>-97.867711</v>
+      </c>
+      <c r="I33" s="2">
+        <v>22.230357000000001</v>
       </c>
       <c r="J33" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1119</v>
       </c>
@@ -3439,17 +3452,17 @@
       <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="1">
-        <v>-103400437</v>
-      </c>
-      <c r="I34" s="1">
-        <v>20603601</v>
+      <c r="H34" s="2">
+        <v>-103.400437</v>
+      </c>
+      <c r="I34" s="2">
+        <v>20.603601000000001</v>
       </c>
       <c r="J34" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2075</v>
       </c>
@@ -3471,17 +3484,17 @@
       <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="1">
-        <v>-100999047</v>
-      </c>
-      <c r="I35" s="1">
-        <v>22165865</v>
+      <c r="H35" s="2">
+        <v>-100.999047</v>
+      </c>
+      <c r="I35" s="2">
+        <v>22.165865</v>
       </c>
       <c r="J35" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1682</v>
       </c>
@@ -3503,17 +3516,17 @@
       <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="1">
-        <v>-100957514</v>
-      </c>
-      <c r="I36" s="1">
-        <v>22142571</v>
+      <c r="H36" s="2">
+        <v>-100.957514</v>
+      </c>
+      <c r="I36" s="2">
+        <v>22.142571</v>
       </c>
       <c r="J36" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2465</v>
       </c>
@@ -3535,17 +3548,17 @@
       <c r="G37" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="1">
-        <v>-100980000</v>
-      </c>
-      <c r="I37" s="1">
-        <v>25424300</v>
+      <c r="H37" s="2">
+        <v>-100.98</v>
+      </c>
+      <c r="I37" s="2">
+        <v>25.424299999999999</v>
       </c>
       <c r="J37" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3929</v>
       </c>
@@ -3567,17 +3580,17 @@
       <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="1">
-        <v>-95208992</v>
-      </c>
-      <c r="I38" s="1">
-        <v>16232143</v>
+      <c r="H38" s="2">
+        <v>-95.208991999999995</v>
+      </c>
+      <c r="I38" s="2">
+        <v>16.232143000000001</v>
       </c>
       <c r="J38" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2541</v>
       </c>
@@ -3599,17 +3612,17 @@
       <c r="G39" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="1">
-        <v>-101184451</v>
-      </c>
-      <c r="I39" s="1">
-        <v>20591588</v>
+      <c r="H39" s="2">
+        <v>-101.184451</v>
+      </c>
+      <c r="I39" s="2">
+        <v>20.591588000000002</v>
       </c>
       <c r="J39" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1550</v>
       </c>
@@ -3631,17 +3644,17 @@
       <c r="G40" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="1">
-        <v>-105218992</v>
-      </c>
-      <c r="I40" s="1">
-        <v>20645710</v>
+      <c r="H40" s="2">
+        <v>-105.218992</v>
+      </c>
+      <c r="I40" s="2">
+        <v>20.645710000000001</v>
       </c>
       <c r="J40" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2732</v>
       </c>
@@ -3663,17 +3676,17 @@
       <c r="G41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="1">
-        <v>-98240100</v>
-      </c>
-      <c r="I41" s="1">
-        <v>18987000</v>
+      <c r="H41" s="2">
+        <v>-98.240099999999998</v>
+      </c>
+      <c r="I41" s="2">
+        <v>18.986999999999998</v>
       </c>
       <c r="J41" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1509</v>
       </c>
@@ -3695,17 +3708,17 @@
       <c r="G42" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="1">
-        <v>-98224344</v>
-      </c>
-      <c r="I42" s="1">
-        <v>19076741</v>
+      <c r="H42" s="2">
+        <v>-98.224344000000002</v>
+      </c>
+      <c r="I42" s="2">
+        <v>19.076740999999998</v>
       </c>
       <c r="J42" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1326</v>
       </c>
@@ -3727,17 +3740,17 @@
       <c r="G43" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="1">
-        <v>-98175034</v>
-      </c>
-      <c r="I43" s="1">
-        <v>19068815</v>
+      <c r="H43" s="2">
+        <v>-98.175033999999997</v>
+      </c>
+      <c r="I43" s="2">
+        <v>19.068815000000001</v>
       </c>
       <c r="J43" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4120</v>
       </c>
@@ -3759,17 +3772,17 @@
       <c r="G44" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="1">
-        <v>-97437533</v>
-      </c>
-      <c r="I44" s="1">
-        <v>20568688</v>
+      <c r="H44" s="2">
+        <v>-97.437533000000002</v>
+      </c>
+      <c r="I44" s="2">
+        <v>20.568688000000002</v>
       </c>
       <c r="J44" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2840</v>
       </c>
@@ -3791,17 +3804,17 @@
       <c r="G45" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="1">
-        <v>-88281399</v>
-      </c>
-      <c r="I45" s="1">
-        <v>18515097</v>
+      <c r="H45" s="2">
+        <v>-88.281398999999993</v>
+      </c>
+      <c r="I45" s="2">
+        <v>18.515097000000001</v>
       </c>
       <c r="J45" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3506</v>
       </c>
@@ -3823,17 +3836,17 @@
       <c r="G46" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="1">
-        <v>-96714676</v>
-      </c>
-      <c r="I46" s="1">
-        <v>17031448</v>
+      <c r="H46" s="2">
+        <v>-96.714675999999997</v>
+      </c>
+      <c r="I46" s="2">
+        <v>17.031448000000001</v>
       </c>
       <c r="J46" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3091</v>
       </c>
@@ -3855,17 +3868,17 @@
       <c r="G47" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="1">
-        <v>-99517997</v>
-      </c>
-      <c r="I47" s="1">
-        <v>27444805</v>
+      <c r="H47" s="2">
+        <v>-99.517996999999994</v>
+      </c>
+      <c r="I47" s="2">
+        <v>27.444804999999999</v>
       </c>
       <c r="J47" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2042</v>
       </c>
@@ -3887,17 +3900,17 @@
       <c r="G48" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="1">
-        <v>-110941743</v>
-      </c>
-      <c r="I48" s="1">
-        <v>31289308</v>
+      <c r="H48" s="2">
+        <v>-110.941743</v>
+      </c>
+      <c r="I48" s="2">
+        <v>31.289307999999998</v>
       </c>
       <c r="J48" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2643</v>
       </c>
@@ -3919,17 +3932,17 @@
       <c r="G49" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="1">
-        <v>-99292183</v>
-      </c>
-      <c r="I49" s="1">
-        <v>19627014</v>
+      <c r="H49" s="2">
+        <v>-99.292182999999994</v>
+      </c>
+      <c r="I49" s="2">
+        <v>19.627013999999999</v>
       </c>
       <c r="J49" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3355</v>
       </c>
@@ -3951,17 +3964,17 @@
       <c r="G50" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="1">
-        <v>-101223603</v>
-      </c>
-      <c r="I50" s="1">
-        <v>19728243</v>
+      <c r="H50" s="2">
+        <v>-101.223603</v>
+      </c>
+      <c r="I50" s="2">
+        <v>19.728242999999999</v>
       </c>
       <c r="J50" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3720</v>
       </c>
@@ -3983,17 +3996,17 @@
       <c r="G51" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="1">
-        <v>-100369720</v>
-      </c>
-      <c r="I51" s="1">
-        <v>25730755</v>
+      <c r="H51" s="2">
+        <v>-100.36972</v>
+      </c>
+      <c r="I51" s="2">
+        <v>25.730754999999998</v>
       </c>
       <c r="J51" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3051</v>
       </c>
@@ -4015,17 +4028,17 @@
       <c r="G52" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="1">
-        <v>-100308379</v>
-      </c>
-      <c r="I52" s="1">
-        <v>25701121</v>
+      <c r="H52" s="2">
+        <v>-100.308379</v>
+      </c>
+      <c r="I52" s="2">
+        <v>25.701121000000001</v>
       </c>
       <c r="J52" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4137</v>
       </c>
@@ -4047,17 +4060,17 @@
       <c r="G53" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="1">
-        <v>-100280615</v>
-      </c>
-      <c r="I53" s="1">
-        <v>25665657</v>
+      <c r="H53" s="2">
+        <v>-100.280615</v>
+      </c>
+      <c r="I53" s="2">
+        <v>25.665656999999999</v>
       </c>
       <c r="J53" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2304</v>
       </c>
@@ -4079,17 +4092,17 @@
       <c r="G54" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="1">
-        <v>-115455678</v>
-      </c>
-      <c r="I54" s="1">
-        <v>32622652</v>
+      <c r="H54" s="2">
+        <v>-115.45567800000001</v>
+      </c>
+      <c r="I54" s="2">
+        <v>32.622652000000002</v>
       </c>
       <c r="J54" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1617</v>
       </c>
@@ -4111,17 +4124,17 @@
       <c r="G55" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="1">
-        <v>-115385232</v>
-      </c>
-      <c r="I55" s="1">
-        <v>32633963</v>
+      <c r="H55" s="2">
+        <v>-115.385232</v>
+      </c>
+      <c r="I55" s="2">
+        <v>32.633963000000001</v>
       </c>
       <c r="J55" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2383</v>
       </c>
@@ -4143,17 +4156,17 @@
       <c r="G56" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="1">
-        <v>-89616045</v>
-      </c>
-      <c r="I56" s="1">
-        <v>20986177</v>
+      <c r="H56" s="2">
+        <v>-89.616045</v>
+      </c>
+      <c r="I56" s="2">
+        <v>20.986177000000001</v>
       </c>
       <c r="J56" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3555</v>
       </c>
@@ -4175,17 +4188,17 @@
       <c r="G57" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="1">
-        <v>-89673300</v>
-      </c>
-      <c r="I57" s="1">
-        <v>20996800</v>
+      <c r="H57" s="2">
+        <v>-89.673299999999998</v>
+      </c>
+      <c r="I57" s="2">
+        <v>20.9968</v>
       </c>
       <c r="J57" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3253</v>
       </c>
@@ -4207,17 +4220,17 @@
       <c r="G58" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="1">
-        <v>-89583038</v>
-      </c>
-      <c r="I58" s="1">
-        <v>21011797</v>
+      <c r="H58" s="2">
+        <v>-89.583038000000002</v>
+      </c>
+      <c r="I58" s="2">
+        <v>21.011797000000001</v>
       </c>
       <c r="J58" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2204</v>
       </c>
@@ -4239,17 +4252,17 @@
       <c r="G59" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="1">
-        <v>-106445167</v>
-      </c>
-      <c r="I59" s="1">
-        <v>23279118</v>
+      <c r="H59" s="2">
+        <v>-106.445167</v>
+      </c>
+      <c r="I59" s="2">
+        <v>23.279118</v>
       </c>
       <c r="J59" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2080</v>
       </c>
@@ -4271,17 +4284,17 @@
       <c r="G60" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="1">
-        <v>-100638629</v>
-      </c>
-      <c r="I60" s="1">
-        <v>23657654</v>
+      <c r="H60" s="2">
+        <v>-100.63862899999999</v>
+      </c>
+      <c r="I60" s="2">
+        <v>23.657654000000001</v>
       </c>
       <c r="J60" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3719</v>
       </c>
@@ -4303,17 +4316,17 @@
       <c r="G61" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="1">
-        <v>-97519514</v>
-      </c>
-      <c r="I61" s="1">
-        <v>25859434</v>
+      <c r="H61" s="2">
+        <v>-97.519514000000001</v>
+      </c>
+      <c r="I61" s="2">
+        <v>25.859434</v>
       </c>
       <c r="J61" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3745</v>
       </c>
@@ -4335,17 +4348,17 @@
       <c r="G62" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="1">
-        <v>-101691000</v>
-      </c>
-      <c r="I62" s="1">
-        <v>21161500</v>
+      <c r="H62" s="2">
+        <v>-101.691</v>
+      </c>
+      <c r="I62" s="2">
+        <v>21.1615</v>
       </c>
       <c r="J62" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5687</v>
       </c>
@@ -4367,17 +4380,17 @@
       <c r="G63" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="1">
-        <v>-101609706</v>
-      </c>
-      <c r="I63" s="1">
-        <v>21110330</v>
+      <c r="H63" s="2">
+        <v>-101.609706</v>
+      </c>
+      <c r="I63" s="2">
+        <v>21.110330000000001</v>
       </c>
       <c r="J63" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1974</v>
       </c>
@@ -4399,17 +4412,17 @@
       <c r="G64" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="1">
-        <v>-101648280</v>
-      </c>
-      <c r="I64" s="1">
-        <v>21123415</v>
+      <c r="H64" s="2">
+        <v>-101.64828</v>
+      </c>
+      <c r="I64" s="2">
+        <v>21.123415000000001</v>
       </c>
       <c r="J64" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3198</v>
       </c>
@@ -4431,17 +4444,17 @@
       <c r="G65" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="1">
-        <v>-102051072</v>
-      </c>
-      <c r="I65" s="1">
-        <v>20352701</v>
+      <c r="H65" s="2">
+        <v>-102.051072</v>
+      </c>
+      <c r="I65" s="2">
+        <v>20.352701</v>
       </c>
       <c r="J65" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4138</v>
       </c>
@@ -4463,17 +4476,17 @@
       <c r="G66" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="1">
-        <v>-100111950</v>
-      </c>
-      <c r="I66" s="1">
-        <v>25650201</v>
+      <c r="H66" s="2">
+        <v>-100.11194999999999</v>
+      </c>
+      <c r="I66" s="2">
+        <v>25.650200999999999</v>
       </c>
       <c r="J66" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5764</v>
       </c>
@@ -4495,17 +4508,17 @@
       <c r="G67" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="1">
-        <v>-106393259</v>
-      </c>
-      <c r="I67" s="1">
-        <v>31633547</v>
+      <c r="H67" s="2">
+        <v>-106.393259</v>
+      </c>
+      <c r="I67" s="2">
+        <v>31.633547</v>
       </c>
       <c r="J67" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2049</v>
       </c>
@@ -4527,17 +4540,17 @@
       <c r="G68" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="1">
-        <v>-106442094</v>
-      </c>
-      <c r="I68" s="1">
-        <v>31657191</v>
+      <c r="H68" s="2">
+        <v>-106.442094</v>
+      </c>
+      <c r="I68" s="2">
+        <v>31.657191000000001</v>
       </c>
       <c r="J68" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2089</v>
       </c>
@@ -4559,17 +4572,17 @@
       <c r="G69" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="1">
-        <v>-106443296</v>
-      </c>
-      <c r="I69" s="1">
-        <v>31735283</v>
+      <c r="H69" s="2">
+        <v>-106.443296</v>
+      </c>
+      <c r="I69" s="2">
+        <v>31.735282999999999</v>
       </c>
       <c r="J69" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5727</v>
       </c>
@@ -4591,17 +4604,17 @@
       <c r="G70" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="1">
-        <v>-99174767</v>
-      </c>
-      <c r="I70" s="1">
-        <v>18901384</v>
+      <c r="H70" s="2">
+        <v>-99.174767000000003</v>
+      </c>
+      <c r="I70" s="2">
+        <v>18.901384</v>
       </c>
       <c r="J70" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3357</v>
       </c>
@@ -4623,17 +4636,17 @@
       <c r="G71" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="1">
-        <v>-101342000</v>
-      </c>
-      <c r="I71" s="1">
-        <v>20656900</v>
+      <c r="H71" s="2">
+        <v>-101.342</v>
+      </c>
+      <c r="I71" s="2">
+        <v>20.6569</v>
       </c>
       <c r="J71" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2219</v>
       </c>
@@ -4655,17 +4668,17 @@
       <c r="G72" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="1">
-        <v>-99237985</v>
-      </c>
-      <c r="I72" s="1">
-        <v>19841238</v>
+      <c r="H72" s="2">
+        <v>-99.237984999999995</v>
+      </c>
+      <c r="I72" s="2">
+        <v>19.841238000000001</v>
       </c>
       <c r="J72" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1170</v>
       </c>
@@ -4687,17 +4700,17 @@
       <c r="G73" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="1">
-        <v>-105650620</v>
-      </c>
-      <c r="I73" s="1">
-        <v>26932382</v>
+      <c r="H73" s="2">
+        <v>-105.65062</v>
+      </c>
+      <c r="I73" s="2">
+        <v>26.932382</v>
       </c>
       <c r="J73" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2303</v>
       </c>
@@ -4719,17 +4732,17 @@
       <c r="G74" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="1">
-        <v>-110968397</v>
-      </c>
-      <c r="I74" s="1">
-        <v>29067377</v>
+      <c r="H74" s="2">
+        <v>-110.968397</v>
+      </c>
+      <c r="I74" s="2">
+        <v>29.067377</v>
       </c>
       <c r="J74" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3746</v>
       </c>
@@ -4751,17 +4764,17 @@
       <c r="G75" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="1">
-        <v>-110994163</v>
-      </c>
-      <c r="I75" s="1">
-        <v>29098279</v>
+      <c r="H75" s="2">
+        <v>-110.994163</v>
+      </c>
+      <c r="I75" s="2">
+        <v>29.098279000000002</v>
       </c>
       <c r="J75" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3794</v>
       </c>
@@ -4783,17 +4796,17 @@
       <c r="G76" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="1">
-        <v>-99155984</v>
-      </c>
-      <c r="I76" s="1">
-        <v>19530956</v>
+      <c r="H76" s="2">
+        <v>-99.155984000000004</v>
+      </c>
+      <c r="I76" s="2">
+        <v>19.530956</v>
       </c>
       <c r="J76" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1727</v>
       </c>
@@ -4815,17 +4828,17 @@
       <c r="G77" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="1">
-        <v>-108473664</v>
-      </c>
-      <c r="I77" s="1">
-        <v>25581298</v>
+      <c r="H77" s="2">
+        <v>-108.473664</v>
+      </c>
+      <c r="I77" s="2">
+        <v>25.581298</v>
       </c>
       <c r="J77" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3800</v>
       </c>
@@ -4847,17 +4860,17 @@
       <c r="G78" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="1">
-        <v>-100202460</v>
-      </c>
-      <c r="I78" s="1">
-        <v>25673208</v>
+      <c r="H78" s="2">
+        <v>-100.20246</v>
+      </c>
+      <c r="I78" s="2">
+        <v>25.673207999999999</v>
       </c>
       <c r="J78" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4548</v>
       </c>
@@ -4879,17 +4892,17 @@
       <c r="G79" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="1">
-        <v>-100209612</v>
-      </c>
-      <c r="I79" s="1">
-        <v>25652489</v>
+      <c r="H79" s="2">
+        <v>-100.20961200000001</v>
+      </c>
+      <c r="I79" s="2">
+        <v>25.652488999999999</v>
       </c>
       <c r="J79" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4540</v>
       </c>
@@ -4911,17 +4924,17 @@
       <c r="G80" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="1">
-        <v>-103348319</v>
-      </c>
-      <c r="I80" s="1">
-        <v>20664569</v>
+      <c r="H80" s="2">
+        <v>-103.348319</v>
+      </c>
+      <c r="I80" s="2">
+        <v>20.664569</v>
       </c>
       <c r="J80" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2645</v>
       </c>
@@ -4943,17 +4956,17 @@
       <c r="G81" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="1">
-        <v>-100327269</v>
-      </c>
-      <c r="I81" s="1">
-        <v>25793154</v>
+      <c r="H81" s="2">
+        <v>-100.327269</v>
+      </c>
+      <c r="I81" s="2">
+        <v>25.793154000000001</v>
       </c>
       <c r="J81" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2947</v>
       </c>
@@ -4975,17 +4988,17 @@
       <c r="G82" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="1">
-        <v>-116609340</v>
-      </c>
-      <c r="I82" s="1">
-        <v>31868194</v>
+      <c r="H82" s="2">
+        <v>-116.60934</v>
+      </c>
+      <c r="I82" s="2">
+        <v>31.868193999999999</v>
       </c>
       <c r="J82" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3005</v>
       </c>
@@ -5007,17 +5020,17 @@
       <c r="G83" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="1">
-        <v>-99025142</v>
-      </c>
-      <c r="I83" s="1">
-        <v>19531440</v>
+      <c r="H83" s="2">
+        <v>-99.025142000000002</v>
+      </c>
+      <c r="I83" s="2">
+        <v>19.53144</v>
       </c>
       <c r="J83" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3503</v>
       </c>
@@ -5039,17 +5052,17 @@
       <c r="G84" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="1">
-        <v>-99045690</v>
-      </c>
-      <c r="I84" s="1">
-        <v>19606576</v>
+      <c r="H84" s="2">
+        <v>-99.045689999999993</v>
+      </c>
+      <c r="I84" s="2">
+        <v>19.606576</v>
       </c>
       <c r="J84" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3014</v>
       </c>
@@ -5071,17 +5084,17 @@
       <c r="G85" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="1">
-        <v>-104652240</v>
-      </c>
-      <c r="I85" s="1">
-        <v>24004533</v>
+      <c r="H85" s="2">
+        <v>-104.65224000000001</v>
+      </c>
+      <c r="I85" s="2">
+        <v>24.004532999999999</v>
       </c>
       <c r="J85" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3071</v>
       </c>
@@ -5103,17 +5116,17 @@
       <c r="G86" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="1">
-        <v>-104611396</v>
-      </c>
-      <c r="I86" s="1">
-        <v>24055876</v>
+      <c r="H86" s="2">
+        <v>-104.611396</v>
+      </c>
+      <c r="I86" s="2">
+        <v>24.055876000000001</v>
       </c>
       <c r="J86" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1138</v>
       </c>
@@ -5135,17 +5148,17 @@
       <c r="G87" t="s">
         <v>22</v>
       </c>
-      <c r="H87" s="1">
-        <v>-105465000</v>
-      </c>
-      <c r="I87" s="1">
-        <v>28199500</v>
+      <c r="H87" s="2">
+        <v>-105.465</v>
+      </c>
+      <c r="I87" s="2">
+        <v>28.1995</v>
       </c>
       <c r="J87" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5700</v>
       </c>
@@ -5167,17 +5180,17 @@
       <c r="G88" t="s">
         <v>12</v>
       </c>
-      <c r="H88" s="1">
-        <v>-107394943</v>
-      </c>
-      <c r="I88" s="1">
-        <v>24779121</v>
+      <c r="H88" s="2">
+        <v>-107.394943</v>
+      </c>
+      <c r="I88" s="2">
+        <v>24.779121</v>
       </c>
       <c r="J88" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1585</v>
       </c>
@@ -5199,17 +5212,17 @@
       <c r="G89" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="1">
-        <v>-107369267</v>
-      </c>
-      <c r="I89" s="1">
-        <v>24824728</v>
+      <c r="H89" s="2">
+        <v>-107.36926699999999</v>
+      </c>
+      <c r="I89" s="2">
+        <v>24.824728</v>
       </c>
       <c r="J89" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4090</v>
       </c>
@@ -5231,17 +5244,17 @@
       <c r="G90" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="1">
-        <v>-98950247</v>
-      </c>
-      <c r="I90" s="1">
-        <v>18869703</v>
+      <c r="H90" s="2">
+        <v>-98.950247000000005</v>
+      </c>
+      <c r="I90" s="2">
+        <v>18.869703000000001</v>
       </c>
       <c r="J90" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1044</v>
       </c>
@@ -5263,17 +5276,17 @@
       <c r="G91" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="1">
-        <v>-99204704</v>
-      </c>
-      <c r="I91" s="1">
-        <v>19671394</v>
+      <c r="H91" s="2">
+        <v>-99.204704000000007</v>
+      </c>
+      <c r="I91" s="2">
+        <v>19.671393999999999</v>
       </c>
       <c r="J91" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1834</v>
       </c>
@@ -5295,17 +5308,17 @@
       <c r="G92" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="1">
-        <v>-99223369</v>
-      </c>
-      <c r="I92" s="1">
-        <v>19638361</v>
+      <c r="H92" s="2">
+        <v>-99.223369000000005</v>
+      </c>
+      <c r="I92" s="2">
+        <v>19.638361</v>
       </c>
       <c r="J92" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1623</v>
       </c>
@@ -5327,17 +5340,17 @@
       <c r="G93" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="1">
-        <v>-106838229</v>
-      </c>
-      <c r="I93" s="1">
-        <v>28401958</v>
+      <c r="H93" s="2">
+        <v>-106.838229</v>
+      </c>
+      <c r="I93" s="2">
+        <v>28.401958</v>
       </c>
       <c r="J93" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2430</v>
       </c>
@@ -5359,17 +5372,17 @@
       <c r="G94" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="1">
-        <v>-99184163</v>
-      </c>
-      <c r="I94" s="1">
-        <v>19338250</v>
+      <c r="H94" s="2">
+        <v>-99.184162999999998</v>
+      </c>
+      <c r="I94" s="2">
+        <v>19.338249999999999</v>
       </c>
       <c r="J94" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2946</v>
       </c>
@@ -5391,17 +5404,17 @@
       <c r="G95" t="s">
         <v>22</v>
       </c>
-      <c r="H95" s="1">
-        <v>-100434362</v>
-      </c>
-      <c r="I95" s="1">
-        <v>20538672</v>
+      <c r="H95" s="2">
+        <v>-100.43436199999999</v>
+      </c>
+      <c r="I95" s="2">
+        <v>20.538671999999998</v>
       </c>
       <c r="J95" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1624</v>
       </c>
@@ -5423,17 +5436,17 @@
       <c r="G96" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="1">
-        <v>-92113754</v>
-      </c>
-      <c r="I96" s="1">
-        <v>16217291</v>
+      <c r="H96" s="2">
+        <v>-92.113754</v>
+      </c>
+      <c r="I96" s="2">
+        <v>16.217290999999999</v>
       </c>
       <c r="J96" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3879</v>
       </c>
@@ -5455,17 +5468,17 @@
       <c r="G97" t="s">
         <v>14</v>
       </c>
-      <c r="H97" s="1">
-        <v>-103715657</v>
-      </c>
-      <c r="I97" s="1">
-        <v>19238524</v>
+      <c r="H97" s="2">
+        <v>-103.71565699999999</v>
+      </c>
+      <c r="I97" s="2">
+        <v>19.238524000000002</v>
       </c>
       <c r="J97" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4024</v>
       </c>
@@ -5487,17 +5500,17 @@
       <c r="G98" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="1">
-        <v>-94471722</v>
-      </c>
-      <c r="I98" s="1">
-        <v>18139977</v>
+      <c r="H98" s="2">
+        <v>-94.471722</v>
+      </c>
+      <c r="I98" s="2">
+        <v>18.139976999999998</v>
       </c>
       <c r="J98" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3900</v>
       </c>
@@ -5519,17 +5532,17 @@
       <c r="G99" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="1">
-        <v>-99097339</v>
-      </c>
-      <c r="I99" s="1">
-        <v>19636524</v>
+      <c r="H99" s="2">
+        <v>-99.097339000000005</v>
+      </c>
+      <c r="I99" s="2">
+        <v>19.636524000000001</v>
       </c>
       <c r="J99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4025</v>
       </c>
@@ -5551,17 +5564,17 @@
       <c r="G100" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="1">
-        <v>-97853000</v>
-      </c>
-      <c r="I100" s="1">
-        <v>22253000</v>
+      <c r="H100" s="2">
+        <v>-97.852999999999994</v>
+      </c>
+      <c r="I100" s="2">
+        <v>22.253</v>
       </c>
       <c r="J100" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3608</v>
       </c>
@@ -5583,17 +5596,17 @@
       <c r="G101" t="s">
         <v>22</v>
       </c>
-      <c r="H101" s="1">
-        <v>-97842141</v>
-      </c>
-      <c r="I101" s="1">
-        <v>22277500</v>
+      <c r="H101" s="2">
+        <v>-97.842140999999998</v>
+      </c>
+      <c r="I101" s="2">
+        <v>22.2775</v>
       </c>
       <c r="J101" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1684</v>
       </c>
@@ -5615,17 +5628,17 @@
       <c r="G102" t="s">
         <v>14</v>
       </c>
-      <c r="H102" s="1">
-        <v>-99489727</v>
-      </c>
-      <c r="I102" s="1">
-        <v>17525690</v>
+      <c r="H102" s="2">
+        <v>-99.489727000000002</v>
+      </c>
+      <c r="I102" s="2">
+        <v>17.525690000000001</v>
       </c>
       <c r="J102" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2302</v>
       </c>
@@ -5647,17 +5660,17 @@
       <c r="G103" t="s">
         <v>12</v>
       </c>
-      <c r="H103" s="1">
-        <v>-106119448</v>
-      </c>
-      <c r="I103" s="1">
-        <v>28634379</v>
+      <c r="H103" s="2">
+        <v>-106.11944800000001</v>
+      </c>
+      <c r="I103" s="2">
+        <v>28.634378999999999</v>
       </c>
       <c r="J103" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5728</v>
       </c>
@@ -5679,17 +5692,17 @@
       <c r="G104" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="1">
-        <v>-106129925</v>
-      </c>
-      <c r="I104" s="1">
-        <v>28727456</v>
+      <c r="H104" s="2">
+        <v>-106.129925</v>
+      </c>
+      <c r="I104" s="2">
+        <v>28.727456</v>
       </c>
       <c r="J104" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3033</v>
       </c>
@@ -5711,17 +5724,17 @@
       <c r="G105" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="1">
-        <v>-106028991</v>
-      </c>
-      <c r="I105" s="1">
-        <v>28619029</v>
+      <c r="H105" s="2">
+        <v>-106.028991</v>
+      </c>
+      <c r="I105" s="2">
+        <v>28.619029000000001</v>
       </c>
       <c r="J105" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3358</v>
       </c>
@@ -5743,17 +5756,17 @@
       <c r="G106" t="s">
         <v>14</v>
       </c>
-      <c r="H106" s="1">
-        <v>-106139165</v>
-      </c>
-      <c r="I106" s="1">
-        <v>28697890</v>
+      <c r="H106" s="2">
+        <v>-106.13916500000001</v>
+      </c>
+      <c r="I106" s="2">
+        <v>28.697890000000001</v>
       </c>
       <c r="J106" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1683</v>
       </c>
@@ -5775,17 +5788,17 @@
       <c r="G107" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="1">
-        <v>-98877900</v>
-      </c>
-      <c r="I107" s="1">
-        <v>19261400</v>
+      <c r="H107" s="2">
+        <v>-98.877899999999997</v>
+      </c>
+      <c r="I107" s="2">
+        <v>19.261399999999998</v>
       </c>
       <c r="J107" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3894</v>
       </c>
@@ -5807,17 +5820,17 @@
       <c r="G108" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="1">
-        <v>-92924802</v>
-      </c>
-      <c r="I108" s="1">
-        <v>18001408</v>
+      <c r="H108" s="2">
+        <v>-92.924802</v>
+      </c>
+      <c r="I108" s="2">
+        <v>18.001408000000001</v>
       </c>
       <c r="J108" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2468</v>
       </c>
@@ -5839,17 +5852,17 @@
       <c r="G109" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="1">
-        <v>-92940323</v>
-      </c>
-      <c r="I109" s="1">
-        <v>17979231</v>
+      <c r="H109" s="2">
+        <v>-92.940323000000006</v>
+      </c>
+      <c r="I109" s="2">
+        <v>17.979230999999999</v>
       </c>
       <c r="J109" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1031</v>
       </c>
@@ -5871,17 +5884,17 @@
       <c r="G110" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="1">
-        <v>-92969055</v>
-      </c>
-      <c r="I110" s="1">
-        <v>17989264</v>
+      <c r="H110" s="2">
+        <v>-92.969054999999997</v>
+      </c>
+      <c r="I110" s="2">
+        <v>17.989263999999999</v>
       </c>
       <c r="J110" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2091</v>
       </c>
@@ -5903,17 +5916,17 @@
       <c r="G111" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="1">
-        <v>-100838554</v>
-      </c>
-      <c r="I111" s="1">
-        <v>20548325</v>
+      <c r="H111" s="2">
+        <v>-100.838554</v>
+      </c>
+      <c r="I111" s="2">
+        <v>20.548324999999998</v>
       </c>
       <c r="J111" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1685</v>
       </c>
@@ -5935,17 +5948,17 @@
       <c r="G112" t="s">
         <v>14</v>
       </c>
-      <c r="H112" s="1">
-        <v>-91801969</v>
-      </c>
-      <c r="I112" s="1">
-        <v>18646369</v>
+      <c r="H112" s="2">
+        <v>-91.801969</v>
+      </c>
+      <c r="I112" s="2">
+        <v>18.646369</v>
       </c>
       <c r="J112" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3605</v>
       </c>
@@ -5967,17 +5980,17 @@
       <c r="G113" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="1">
-        <v>-90544677</v>
-      </c>
-      <c r="I113" s="1">
-        <v>19824160</v>
+      <c r="H113" s="2">
+        <v>-90.544676999999993</v>
+      </c>
+      <c r="I113" s="2">
+        <v>19.824159999999999</v>
       </c>
       <c r="J113" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2646</v>
       </c>
@@ -5999,17 +6012,17 @@
       <c r="G114" t="s">
         <v>14</v>
       </c>
-      <c r="H114" s="1">
-        <v>-109926959</v>
-      </c>
-      <c r="I114" s="1">
-        <v>27481438</v>
+      <c r="H114" s="2">
+        <v>-109.926959</v>
+      </c>
+      <c r="I114" s="2">
+        <v>27.481438000000001</v>
       </c>
       <c r="J114" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3632</v>
       </c>
@@ -6031,17 +6044,17 @@
       <c r="G115" t="s">
         <v>14</v>
       </c>
-      <c r="H115" s="1">
-        <v>-86860466</v>
-      </c>
-      <c r="I115" s="1">
-        <v>21148529</v>
+      <c r="H115" s="2">
+        <v>-86.860466000000002</v>
+      </c>
+      <c r="I115" s="2">
+        <v>21.148529</v>
       </c>
       <c r="J115" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1084</v>
       </c>
@@ -6063,17 +6076,17 @@
       <c r="G116" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="1">
-        <v>-86852018</v>
-      </c>
-      <c r="I116" s="1">
-        <v>21139791</v>
+      <c r="H116" s="2">
+        <v>-86.852018000000001</v>
+      </c>
+      <c r="I116" s="2">
+        <v>21.139790999999999</v>
       </c>
       <c r="J116" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>5855</v>
       </c>
@@ -6095,17 +6108,17 @@
       <c r="G117" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="1">
-        <v>-99244106</v>
-      </c>
-      <c r="I117" s="1">
-        <v>19554627</v>
+      <c r="H117" s="2">
+        <v>-99.244106000000002</v>
+      </c>
+      <c r="I117" s="2">
+        <v>19.554627</v>
       </c>
       <c r="J117" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2731</v>
       </c>
@@ -6127,17 +6140,17 @@
       <c r="G118" t="s">
         <v>14</v>
       </c>
-      <c r="H118" s="1">
-        <v>-98200198</v>
-      </c>
-      <c r="I118" s="1">
-        <v>19340290</v>
+      <c r="H118" s="2">
+        <v>-98.200198</v>
+      </c>
+      <c r="I118" s="2">
+        <v>19.34029</v>
       </c>
       <c r="J118" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1204</v>
       </c>
@@ -6159,17 +6172,17 @@
       <c r="G119" t="s">
         <v>14</v>
       </c>
-      <c r="H119" s="1">
-        <v>-109002431</v>
-      </c>
-      <c r="I119" s="1">
-        <v>25785758</v>
+      <c r="H119" s="2">
+        <v>-109.002431</v>
+      </c>
+      <c r="I119" s="2">
+        <v>25.785758000000001</v>
       </c>
       <c r="J119" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1549</v>
       </c>
@@ -6191,17 +6204,17 @@
       <c r="G120" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="1">
-        <v>-102315000</v>
-      </c>
-      <c r="I120" s="1">
-        <v>21858600</v>
+      <c r="H120" s="2">
+        <v>-102.315</v>
+      </c>
+      <c r="I120" s="2">
+        <v>21.858599999999999</v>
       </c>
       <c r="J120" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2271</v>
       </c>
@@ -6223,17 +6236,17 @@
       <c r="G121" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="1">
-        <v>-102257988</v>
-      </c>
-      <c r="I121" s="1">
-        <v>21882268</v>
+      <c r="H121" s="2">
+        <v>-102.257988</v>
+      </c>
+      <c r="I121" s="2">
+        <v>21.882268</v>
       </c>
       <c r="J121" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2734</v>
       </c>
@@ -6255,17 +6268,17 @@
       <c r="G122" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="1">
-        <v>-102295190</v>
-      </c>
-      <c r="I122" s="1">
-        <v>19975097</v>
+      <c r="H122" s="2">
+        <v>-102.29519000000001</v>
+      </c>
+      <c r="I122" s="2">
+        <v>19.975097000000002</v>
       </c>
       <c r="J122" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3630</v>
       </c>
@@ -6287,17 +6300,17 @@
       <c r="G123" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="1">
-        <v>-99156511</v>
-      </c>
-      <c r="I123" s="1">
-        <v>23752347</v>
+      <c r="H123" s="2">
+        <v>-99.156510999999995</v>
+      </c>
+      <c r="I123" s="2">
+        <v>23.752347</v>
       </c>
       <c r="J123" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5702</v>
       </c>
@@ -6319,17 +6332,17 @@
       <c r="G124" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="1">
-        <v>-99590790</v>
-      </c>
-      <c r="I124" s="1">
-        <v>19351100</v>
+      <c r="H124" s="2">
+        <v>-99.590789999999998</v>
+      </c>
+      <c r="I124" s="2">
+        <v>19.351099999999999</v>
       </c>
       <c r="J124" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>5469</v>
       </c>
@@ -6351,17 +6364,17 @@
       <c r="G125" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="1">
-        <v>-99116881</v>
-      </c>
-      <c r="I125" s="1">
-        <v>19519076</v>
+      <c r="H125" s="2">
+        <v>-99.116881000000006</v>
+      </c>
+      <c r="I125" s="2">
+        <v>19.519075999999998</v>
       </c>
       <c r="J125" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3895</v>
       </c>
@@ -6383,17 +6396,17 @@
       <c r="G126" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="1">
-        <v>-104881686</v>
-      </c>
-      <c r="I126" s="1">
-        <v>21491529</v>
+      <c r="H126" s="2">
+        <v>-104.881686</v>
+      </c>
+      <c r="I126" s="2">
+        <v>21.491529</v>
       </c>
       <c r="J126" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2648</v>
       </c>
@@ -6415,17 +6428,17 @@
       <c r="G127" t="s">
         <v>14</v>
       </c>
-      <c r="H127" s="1">
-        <v>-97415364</v>
-      </c>
-      <c r="I127" s="1">
-        <v>18467912</v>
+      <c r="H127" s="2">
+        <v>-97.415363999999997</v>
+      </c>
+      <c r="I127" s="2">
+        <v>18.467911999999998</v>
       </c>
       <c r="J127" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1003</v>
       </c>
@@ -6447,17 +6460,17 @@
       <c r="G128" t="s">
         <v>14</v>
       </c>
-      <c r="H128" s="1">
-        <v>-87076171</v>
-      </c>
-      <c r="I128" s="1">
-        <v>20629277</v>
+      <c r="H128" s="2">
+        <v>-87.076171000000002</v>
+      </c>
+      <c r="I128" s="2">
+        <v>20.629276999999998</v>
       </c>
       <c r="J128" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1804</v>
       </c>
@@ -6479,17 +6492,17 @@
       <c r="G129" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="1">
-        <v>-96694840</v>
-      </c>
-      <c r="I129" s="1">
-        <v>17066971</v>
+      <c r="H129" s="2">
+        <v>-96.694839999999999</v>
+      </c>
+      <c r="I129" s="2">
+        <v>17.066970999999999</v>
       </c>
       <c r="J129" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2074</v>
       </c>
@@ -6511,17 +6524,17 @@
       <c r="G130" t="s">
         <v>12</v>
       </c>
-      <c r="H130" s="1">
-        <v>-100934649</v>
-      </c>
-      <c r="I130" s="1">
-        <v>22138534</v>
+      <c r="H130" s="2">
+        <v>-100.93464899999999</v>
+      </c>
+      <c r="I130" s="2">
+        <v>22.138534</v>
       </c>
       <c r="J130" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3945</v>
       </c>
@@ -6543,17 +6556,17 @@
       <c r="G131" t="s">
         <v>22</v>
       </c>
-      <c r="H131" s="1">
-        <v>-99982411</v>
-      </c>
-      <c r="I131" s="1">
-        <v>20398643</v>
+      <c r="H131" s="2">
+        <v>-99.982410999999999</v>
+      </c>
+      <c r="I131" s="2">
+        <v>20.398643</v>
       </c>
       <c r="J131" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2374</v>
       </c>
@@ -6575,17 +6588,17 @@
       <c r="G132" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="1">
-        <v>-101223937</v>
-      </c>
-      <c r="I132" s="1">
-        <v>20583465</v>
+      <c r="H132" s="2">
+        <v>-101.22393700000001</v>
+      </c>
+      <c r="I132" s="2">
+        <v>20.583465</v>
       </c>
       <c r="J132" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4187</v>
       </c>
@@ -6607,17 +6620,17 @@
       <c r="G133" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="1">
-        <v>-117058919</v>
-      </c>
-      <c r="I133" s="1">
-        <v>32378427</v>
+      <c r="H133" s="2">
+        <v>-117.058919</v>
+      </c>
+      <c r="I133" s="2">
+        <v>32.378427000000002</v>
       </c>
       <c r="J133" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3241</v>
       </c>
@@ -6639,17 +6652,17 @@
       <c r="G134" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="1">
-        <v>-97094811</v>
-      </c>
-      <c r="I134" s="1">
-        <v>18862674</v>
+      <c r="H134" s="2">
+        <v>-97.094811000000007</v>
+      </c>
+      <c r="I134" s="2">
+        <v>18.862673999999998</v>
       </c>
       <c r="J134" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2079</v>
       </c>
@@ -6671,17 +6684,17 @@
       <c r="G135" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="1">
-        <v>-99028924</v>
-      </c>
-      <c r="I135" s="1">
-        <v>19425299</v>
+      <c r="H135" s="2">
+        <v>-99.028924000000004</v>
+      </c>
+      <c r="I135" s="2">
+        <v>19.425298999999999</v>
       </c>
       <c r="J135" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2381</v>
       </c>
@@ -6703,17 +6716,17 @@
       <c r="G136" t="s">
         <v>12</v>
       </c>
-      <c r="H136" s="1">
-        <v>-101220271</v>
-      </c>
-      <c r="I136" s="1">
-        <v>19679574</v>
+      <c r="H136" s="2">
+        <v>-101.220271</v>
+      </c>
+      <c r="I136" s="2">
+        <v>19.679573999999999</v>
       </c>
       <c r="J136" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1108</v>
       </c>
@@ -6735,17 +6748,17 @@
       <c r="G137" t="s">
         <v>14</v>
       </c>
-      <c r="H137" s="1">
-        <v>-101164118</v>
-      </c>
-      <c r="I137" s="1">
-        <v>19669277</v>
+      <c r="H137" s="2">
+        <v>-101.164118</v>
+      </c>
+      <c r="I137" s="2">
+        <v>19.669277000000001</v>
       </c>
       <c r="J137" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3718</v>
       </c>
@@ -6767,17 +6780,17 @@
       <c r="G138" t="s">
         <v>14</v>
       </c>
-      <c r="H138" s="1">
-        <v>-106423796</v>
-      </c>
-      <c r="I138" s="1">
-        <v>23244407</v>
+      <c r="H138" s="2">
+        <v>-106.423796</v>
+      </c>
+      <c r="I138" s="2">
+        <v>23.244406999999999</v>
       </c>
       <c r="J138" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2433</v>
       </c>
@@ -6799,17 +6812,17 @@
       <c r="G139" t="s">
         <v>12</v>
       </c>
-      <c r="H139" s="1">
-        <v>-101660000</v>
-      </c>
-      <c r="I139" s="1">
-        <v>21098300</v>
+      <c r="H139" s="2">
+        <v>-101.66</v>
+      </c>
+      <c r="I139" s="2">
+        <v>21.098299999999998</v>
       </c>
       <c r="J139" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3356</v>
       </c>
@@ -6831,17 +6844,17 @@
       <c r="G140" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="1">
-        <v>-102212659</v>
-      </c>
-      <c r="I140" s="1">
-        <v>17978257</v>
+      <c r="H140" s="2">
+        <v>-102.212659</v>
+      </c>
+      <c r="I140" s="2">
+        <v>17.978256999999999</v>
       </c>
       <c r="J140" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1107</v>
       </c>
@@ -6863,17 +6876,17 @@
       <c r="G141" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="1">
-        <v>-98885900</v>
-      </c>
-      <c r="I141" s="1">
-        <v>19299200</v>
+      <c r="H141" s="2">
+        <v>-98.885900000000007</v>
+      </c>
+      <c r="I141" s="2">
+        <v>19.299199999999999</v>
       </c>
       <c r="J141" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3030</v>
       </c>
@@ -6895,17 +6908,17 @@
       <c r="G142" t="s">
         <v>14</v>
       </c>
-      <c r="H142" s="1">
-        <v>-110949304</v>
-      </c>
-      <c r="I142" s="1">
-        <v>29122137</v>
+      <c r="H142" s="2">
+        <v>-110.949304</v>
+      </c>
+      <c r="I142" s="2">
+        <v>29.122136999999999</v>
       </c>
       <c r="J142" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4036</v>
       </c>
@@ -6927,17 +6940,17 @@
       <c r="G143" t="s">
         <v>14</v>
       </c>
-      <c r="H143" s="1">
-        <v>-110926232</v>
-      </c>
-      <c r="I143" s="1">
-        <v>27935654</v>
+      <c r="H143" s="2">
+        <v>-110.926232</v>
+      </c>
+      <c r="I143" s="2">
+        <v>27.935654</v>
       </c>
       <c r="J143" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1027</v>
       </c>
@@ -6959,17 +6972,17 @@
       <c r="G144" t="s">
         <v>22</v>
       </c>
-      <c r="H144" s="1">
-        <v>-100317288</v>
-      </c>
-      <c r="I144" s="1">
-        <v>25766057</v>
+      <c r="H144" s="2">
+        <v>-100.317288</v>
+      </c>
+      <c r="I144" s="2">
+        <v>25.766057</v>
       </c>
       <c r="J144" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3015</v>
       </c>
@@ -6991,17 +7004,17 @@
       <c r="G145" t="s">
         <v>14</v>
       </c>
-      <c r="H145" s="1">
-        <v>-116600413</v>
-      </c>
-      <c r="I145" s="1">
-        <v>31821381</v>
+      <c r="H145" s="2">
+        <v>-116.600413</v>
+      </c>
+      <c r="I145" s="2">
+        <v>31.821380999999999</v>
       </c>
       <c r="J145" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1423</v>
       </c>
@@ -7023,17 +7036,17 @@
       <c r="G146" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="1">
-        <v>-99148288</v>
-      </c>
-      <c r="I146" s="1">
-        <v>19677320</v>
+      <c r="H146" s="2">
+        <v>-99.148287999999994</v>
+      </c>
+      <c r="I146" s="2">
+        <v>19.677320000000002</v>
       </c>
       <c r="J146" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3031</v>
       </c>
@@ -7055,17 +7068,17 @@
       <c r="G147" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="1">
-        <v>-100796933</v>
-      </c>
-      <c r="I147" s="1">
-        <v>20534267</v>
+      <c r="H147" s="2">
+        <v>-100.796933</v>
+      </c>
+      <c r="I147" s="2">
+        <v>20.534267</v>
       </c>
       <c r="J147" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4139</v>
       </c>
@@ -7087,17 +7100,17 @@
       <c r="G148" t="s">
         <v>14</v>
       </c>
-      <c r="H148" s="1">
-        <v>-90528900</v>
-      </c>
-      <c r="I148" s="1">
-        <v>19852400</v>
+      <c r="H148" s="2">
+        <v>-90.528899999999993</v>
+      </c>
+      <c r="I148" s="2">
+        <v>19.852399999999999</v>
       </c>
       <c r="J148" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4549</v>
       </c>
@@ -7119,17 +7132,17 @@
       <c r="G149" t="s">
         <v>14</v>
       </c>
-      <c r="H149" s="1">
-        <v>-108990640</v>
-      </c>
-      <c r="I149" s="1">
-        <v>25805814</v>
+      <c r="H149" s="2">
+        <v>-108.99064</v>
+      </c>
+      <c r="I149" s="2">
+        <v>25.805814000000002</v>
       </c>
       <c r="J149" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2211</v>
       </c>
@@ -7151,17 +7164,17 @@
       <c r="G150" t="s">
         <v>17</v>
       </c>
-      <c r="H150" s="1">
-        <v>-102296931</v>
-      </c>
-      <c r="I150" s="1">
-        <v>21859721</v>
+      <c r="H150" s="2">
+        <v>-102.296931</v>
+      </c>
+      <c r="I150" s="2">
+        <v>21.859721</v>
       </c>
       <c r="J150" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3872</v>
       </c>
@@ -7183,17 +7196,17 @@
       <c r="G151" t="s">
         <v>14</v>
       </c>
-      <c r="H151" s="1">
-        <v>-99105688</v>
-      </c>
-      <c r="I151" s="1">
-        <v>19417472</v>
+      <c r="H151" s="2">
+        <v>-99.105688000000001</v>
+      </c>
+      <c r="I151" s="2">
+        <v>19.417472</v>
       </c>
       <c r="J151" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4619</v>
       </c>
@@ -7215,17 +7228,17 @@
       <c r="G152" t="s">
         <v>17</v>
       </c>
-      <c r="H152" s="1">
-        <v>-98229989</v>
-      </c>
-      <c r="I152" s="1">
-        <v>19324699</v>
+      <c r="H152" s="2">
+        <v>-98.229989000000003</v>
+      </c>
+      <c r="I152" s="2">
+        <v>19.324698999999999</v>
       </c>
       <c r="J152" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4191</v>
       </c>
@@ -7247,17 +7260,17 @@
       <c r="G153" t="s">
         <v>12</v>
       </c>
-      <c r="H153" s="1">
-        <v>-99211364</v>
-      </c>
-      <c r="I153" s="1">
-        <v>19579328</v>
+      <c r="H153" s="2">
+        <v>-99.211364000000003</v>
+      </c>
+      <c r="I153" s="2">
+        <v>19.579328</v>
       </c>
       <c r="J153" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2356</v>
       </c>
@@ -7279,17 +7292,17 @@
       <c r="G154" t="s">
         <v>12</v>
       </c>
-      <c r="H154" s="1">
-        <v>-100397597</v>
-      </c>
-      <c r="I154" s="1">
-        <v>20615333</v>
+      <c r="H154" s="2">
+        <v>-100.397597</v>
+      </c>
+      <c r="I154" s="2">
+        <v>20.615333</v>
       </c>
       <c r="J154" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1007</v>
       </c>
@@ -7311,17 +7324,17 @@
       <c r="G155" t="s">
         <v>22</v>
       </c>
-      <c r="H155" s="1">
-        <v>-101423985</v>
-      </c>
-      <c r="I155" s="1">
-        <v>26908987</v>
+      <c r="H155" s="2">
+        <v>-101.423985</v>
+      </c>
+      <c r="I155" s="2">
+        <v>26.908987</v>
       </c>
       <c r="J155" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1140</v>
       </c>
@@ -7343,17 +7356,17 @@
       <c r="G156" t="s">
         <v>14</v>
       </c>
-      <c r="H156" s="1">
-        <v>-115414111</v>
-      </c>
-      <c r="I156" s="1">
-        <v>32657590</v>
+      <c r="H156" s="2">
+        <v>-115.41411100000001</v>
+      </c>
+      <c r="I156" s="2">
+        <v>32.657589999999999</v>
       </c>
       <c r="J156" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4026</v>
       </c>
@@ -7375,17 +7388,17 @@
       <c r="G157" t="s">
         <v>14</v>
       </c>
-      <c r="H157" s="1">
-        <v>-115506628</v>
-      </c>
-      <c r="I157" s="1">
-        <v>32621413</v>
+      <c r="H157" s="2">
+        <v>-115.50662800000001</v>
+      </c>
+      <c r="I157" s="2">
+        <v>32.621412999999997</v>
       </c>
       <c r="J157" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4062</v>
       </c>
@@ -7407,17 +7420,17 @@
       <c r="G158" t="s">
         <v>14</v>
       </c>
-      <c r="H158" s="1">
-        <v>-104333666</v>
-      </c>
-      <c r="I158" s="1">
-        <v>19103518</v>
+      <c r="H158" s="2">
+        <v>-104.33366599999999</v>
+      </c>
+      <c r="I158" s="2">
+        <v>19.103518000000001</v>
       </c>
       <c r="J158" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2432</v>
       </c>
@@ -7439,17 +7452,17 @@
       <c r="G159" t="s">
         <v>12</v>
       </c>
-      <c r="H159" s="1">
-        <v>-104653409</v>
-      </c>
-      <c r="I159" s="1">
-        <v>24036520</v>
+      <c r="H159" s="2">
+        <v>-104.653409</v>
+      </c>
+      <c r="I159" s="2">
+        <v>24.036519999999999</v>
       </c>
       <c r="J159" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1403</v>
       </c>
@@ -7471,17 +7484,17 @@
       <c r="G160" t="s">
         <v>22</v>
       </c>
-      <c r="H160" s="1">
-        <v>-103244472</v>
-      </c>
-      <c r="I160" s="1">
-        <v>20296640</v>
+      <c r="H160" s="2">
+        <v>-103.244472</v>
+      </c>
+      <c r="I160" s="2">
+        <v>20.29664</v>
       </c>
       <c r="J160" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1580</v>
       </c>
@@ -7503,17 +7516,17 @@
       <c r="G161" t="s">
         <v>12</v>
       </c>
-      <c r="H161" s="1">
-        <v>-99204396</v>
-      </c>
-      <c r="I161" s="1">
-        <v>19502639</v>
+      <c r="H161" s="2">
+        <v>-99.204396000000003</v>
+      </c>
+      <c r="I161" s="2">
+        <v>19.502638999999999</v>
       </c>
       <c r="J161" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3878</v>
       </c>
@@ -7535,17 +7548,17 @@
       <c r="G162" t="s">
         <v>14</v>
       </c>
-      <c r="H162" s="1">
-        <v>-103410000</v>
-      </c>
-      <c r="I162" s="1">
-        <v>20666800</v>
+      <c r="H162" s="2">
+        <v>-103.41</v>
+      </c>
+      <c r="I162" s="2">
+        <v>20.666799999999999</v>
       </c>
       <c r="J162" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2342</v>
       </c>
@@ -7567,17 +7580,17 @@
       <c r="G163" t="s">
         <v>12</v>
       </c>
-      <c r="H163" s="1">
-        <v>-103433081</v>
-      </c>
-      <c r="I163" s="1">
-        <v>20679220</v>
+      <c r="H163" s="2">
+        <v>-103.433081</v>
+      </c>
+      <c r="I163" s="2">
+        <v>20.679220000000001</v>
       </c>
       <c r="J163" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>3721</v>
       </c>
@@ -7599,17 +7612,17 @@
       <c r="G164" t="s">
         <v>12</v>
       </c>
-      <c r="H164" s="1">
-        <v>-103375364</v>
-      </c>
-      <c r="I164" s="1">
-        <v>20713868</v>
+      <c r="H164" s="2">
+        <v>-103.375364</v>
+      </c>
+      <c r="I164" s="2">
+        <v>20.713868000000002</v>
       </c>
       <c r="J164" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4012</v>
       </c>
@@ -7631,17 +7644,17 @@
       <c r="G165" t="s">
         <v>12</v>
       </c>
-      <c r="H165" s="1">
-        <v>-103419294</v>
-      </c>
-      <c r="I165" s="1">
-        <v>20649563</v>
+      <c r="H165" s="2">
+        <v>-103.41929399999999</v>
+      </c>
+      <c r="I165" s="2">
+        <v>20.649563000000001</v>
       </c>
       <c r="J165" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4071</v>
       </c>
@@ -7663,17 +7676,17 @@
       <c r="G166" t="s">
         <v>12</v>
       </c>
-      <c r="H166" s="1">
-        <v>-103415000</v>
-      </c>
-      <c r="I166" s="1">
-        <v>20705200</v>
+      <c r="H166" s="2">
+        <v>-103.41500000000001</v>
+      </c>
+      <c r="I166" s="2">
+        <v>20.705200000000001</v>
       </c>
       <c r="J166" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2989</v>
       </c>
@@ -7695,17 +7708,17 @@
       <c r="G167" t="s">
         <v>14</v>
       </c>
-      <c r="H167" s="1">
-        <v>-103450744</v>
-      </c>
-      <c r="I167" s="1">
-        <v>20729725</v>
+      <c r="H167" s="2">
+        <v>-103.450744</v>
+      </c>
+      <c r="I167" s="2">
+        <v>20.729724999999998</v>
       </c>
       <c r="J167" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4546</v>
       </c>
@@ -7727,17 +7740,17 @@
       <c r="G168" t="s">
         <v>14</v>
       </c>
-      <c r="H168" s="1">
-        <v>-102550853</v>
-      </c>
-      <c r="I168" s="1">
-        <v>22762089</v>
+      <c r="H168" s="2">
+        <v>-102.550853</v>
+      </c>
+      <c r="I168" s="2">
+        <v>22.762089</v>
       </c>
       <c r="J168" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2839</v>
       </c>
@@ -7759,17 +7772,17 @@
       <c r="G169" t="s">
         <v>14</v>
       </c>
-      <c r="H169" s="1">
-        <v>-96881879</v>
-      </c>
-      <c r="I169" s="1">
-        <v>19508967</v>
+      <c r="H169" s="2">
+        <v>-96.881878999999998</v>
+      </c>
+      <c r="I169" s="2">
+        <v>19.508966999999998</v>
       </c>
       <c r="J169" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1512</v>
       </c>
@@ -7791,17 +7804,17 @@
       <c r="G170" t="s">
         <v>14</v>
       </c>
-      <c r="H170" s="1">
-        <v>-103730935</v>
-      </c>
-      <c r="I170" s="1">
-        <v>19280852</v>
+      <c r="H170" s="2">
+        <v>-103.730935</v>
+      </c>
+      <c r="I170" s="2">
+        <v>19.280851999999999</v>
       </c>
       <c r="J170" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>3851</v>
       </c>
@@ -7823,17 +7836,17 @@
       <c r="G171" t="s">
         <v>12</v>
       </c>
-      <c r="H171" s="1">
-        <v>-99093828</v>
-      </c>
-      <c r="I171" s="1">
-        <v>19419601</v>
+      <c r="H171" s="2">
+        <v>-99.093828000000002</v>
+      </c>
+      <c r="I171" s="2">
+        <v>19.419601</v>
       </c>
       <c r="J171" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1130</v>
       </c>
@@ -7855,17 +7868,17 @@
       <c r="G172" t="s">
         <v>22</v>
       </c>
-      <c r="H172" s="1">
-        <v>-93136163</v>
-      </c>
-      <c r="I172" s="1">
-        <v>16753330</v>
+      <c r="H172" s="2">
+        <v>-93.136162999999996</v>
+      </c>
+      <c r="I172" s="2">
+        <v>16.753329999999998</v>
       </c>
       <c r="J172" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2375</v>
       </c>
@@ -7887,17 +7900,17 @@
       <c r="G173" t="s">
         <v>12</v>
       </c>
-      <c r="H173" s="1">
-        <v>-103423282</v>
-      </c>
-      <c r="I173" s="1">
-        <v>25552137</v>
+      <c r="H173" s="2">
+        <v>-103.423282</v>
+      </c>
+      <c r="I173" s="2">
+        <v>25.552136999999998</v>
       </c>
       <c r="J173" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3631</v>
       </c>
@@ -7919,17 +7932,17 @@
       <c r="G174" t="s">
         <v>12</v>
       </c>
-      <c r="H174" s="1">
-        <v>-103257387</v>
-      </c>
-      <c r="I174" s="1">
-        <v>20627848</v>
+      <c r="H174" s="2">
+        <v>-103.25738699999999</v>
+      </c>
+      <c r="I174" s="2">
+        <v>20.627848</v>
       </c>
       <c r="J174" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1460</v>
       </c>
@@ -7951,17 +7964,17 @@
       <c r="G175" t="s">
         <v>12</v>
       </c>
-      <c r="H175" s="1">
-        <v>-99108649</v>
-      </c>
-      <c r="I175" s="1">
-        <v>19294826</v>
+      <c r="H175" s="2">
+        <v>-99.108649</v>
+      </c>
+      <c r="I175" s="2">
+        <v>19.294826</v>
       </c>
       <c r="J175" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2644</v>
       </c>
@@ -7983,17 +7996,17 @@
       <c r="G176" t="s">
         <v>65</v>
       </c>
-      <c r="H176" s="1">
-        <v>-99176329</v>
-      </c>
-      <c r="I176" s="1">
-        <v>19284504</v>
+      <c r="H176" s="2">
+        <v>-99.176328999999996</v>
+      </c>
+      <c r="I176" s="2">
+        <v>19.284503999999998</v>
       </c>
       <c r="J176" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3854</v>
       </c>
@@ -8015,17 +8028,17 @@
       <c r="G177" t="s">
         <v>14</v>
       </c>
-      <c r="H177" s="1">
-        <v>-99213848</v>
-      </c>
-      <c r="I177" s="1">
-        <v>19542913</v>
+      <c r="H177" s="2">
+        <v>-99.213847999999999</v>
+      </c>
+      <c r="I177" s="2">
+        <v>19.542912999999999</v>
       </c>
       <c r="J177" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3511</v>
       </c>
@@ -8047,17 +8060,17 @@
       <c r="G178" t="s">
         <v>160</v>
       </c>
-      <c r="H178" s="1">
-        <v>-99187567</v>
-      </c>
-      <c r="I178" s="1">
-        <v>19535713</v>
+      <c r="H178" s="2">
+        <v>-99.187567000000001</v>
+      </c>
+      <c r="I178" s="2">
+        <v>19.535713000000001</v>
       </c>
       <c r="J178" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1022</v>
       </c>
@@ -8079,17 +8092,17 @@
       <c r="G179" t="s">
         <v>12</v>
       </c>
-      <c r="H179" s="1">
-        <v>-103442758</v>
-      </c>
-      <c r="I179" s="1">
-        <v>20587614</v>
+      <c r="H179" s="2">
+        <v>-103.442758</v>
+      </c>
+      <c r="I179" s="2">
+        <v>20.587613999999999</v>
       </c>
       <c r="J179" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4155</v>
       </c>
@@ -8111,17 +8124,17 @@
       <c r="G180" t="s">
         <v>12</v>
       </c>
-      <c r="H180" s="1">
-        <v>-116847681</v>
-      </c>
-      <c r="I180" s="1">
-        <v>32494047</v>
+      <c r="H180" s="2">
+        <v>-116.84768099999999</v>
+      </c>
+      <c r="I180" s="2">
+        <v>32.494047000000002</v>
       </c>
       <c r="J180" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4011</v>
       </c>
@@ -8143,17 +8156,17 @@
       <c r="G181" t="s">
         <v>14</v>
       </c>
-      <c r="H181" s="1">
-        <v>-116993000</v>
-      </c>
-      <c r="I181" s="1">
-        <v>32508200</v>
+      <c r="H181" s="2">
+        <v>-116.99299999999999</v>
+      </c>
+      <c r="I181" s="2">
+        <v>32.508200000000002</v>
       </c>
       <c r="J181" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1613</v>
       </c>
@@ -8175,17 +8188,17 @@
       <c r="G182" t="s">
         <v>22</v>
       </c>
-      <c r="H182" s="1">
-        <v>-117119004</v>
-      </c>
-      <c r="I182" s="1">
-        <v>32528235</v>
+      <c r="H182" s="2">
+        <v>-117.119004</v>
+      </c>
+      <c r="I182" s="2">
+        <v>32.528235000000002</v>
       </c>
       <c r="J182" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1489</v>
       </c>
@@ -8207,17 +8220,17 @@
       <c r="G183" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="1">
-        <v>-98867845</v>
-      </c>
-      <c r="I183" s="1">
-        <v>19515652</v>
+      <c r="H183" s="2">
+        <v>-98.867845000000003</v>
+      </c>
+      <c r="I183" s="2">
+        <v>19.515651999999999</v>
       </c>
       <c r="J183" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3588</v>
       </c>
@@ -8239,17 +8252,17 @@
       <c r="G184" t="s">
         <v>14</v>
       </c>
-      <c r="H184" s="1">
-        <v>-99216263</v>
-      </c>
-      <c r="I184" s="1">
-        <v>18839450</v>
+      <c r="H184" s="2">
+        <v>-99.216262999999998</v>
+      </c>
+      <c r="I184" s="2">
+        <v>18.839449999999999</v>
       </c>
       <c r="J184" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3176</v>
       </c>
@@ -8271,17 +8284,17 @@
       <c r="G185" t="s">
         <v>12</v>
       </c>
-      <c r="H185" s="1">
-        <v>-99018545</v>
-      </c>
-      <c r="I185" s="1">
-        <v>19659043</v>
+      <c r="H185" s="2">
+        <v>-99.018545000000003</v>
+      </c>
+      <c r="I185" s="2">
+        <v>19.659043</v>
       </c>
       <c r="J185" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2378</v>
       </c>
@@ -8303,17 +8316,17 @@
       <c r="G186" t="s">
         <v>12</v>
       </c>
-      <c r="H186" s="1">
-        <v>-97871513</v>
-      </c>
-      <c r="I186" s="1">
-        <v>22271134</v>
+      <c r="H186" s="2">
+        <v>-97.871512999999993</v>
+      </c>
+      <c r="I186" s="2">
+        <v>22.271134</v>
       </c>
       <c r="J186" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2735</v>
       </c>
@@ -8335,17 +8348,17 @@
       <c r="G187" t="s">
         <v>14</v>
       </c>
-      <c r="H187" s="1">
-        <v>-87081312</v>
-      </c>
-      <c r="I187" s="1">
-        <v>20654042</v>
+      <c r="H187" s="2">
+        <v>-87.081311999999997</v>
+      </c>
+      <c r="I187" s="2">
+        <v>20.654042</v>
       </c>
       <c r="J187" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1139</v>
       </c>
@@ -8367,17 +8380,17 @@
       <c r="G188" t="s">
         <v>22</v>
       </c>
-      <c r="H188" s="1">
-        <v>-100451056</v>
-      </c>
-      <c r="I188" s="1">
-        <v>25675263</v>
+      <c r="H188" s="2">
+        <v>-100.45105599999999</v>
+      </c>
+      <c r="I188" s="2">
+        <v>25.675263000000001</v>
       </c>
       <c r="J188" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1622</v>
       </c>
@@ -8399,17 +8412,17 @@
       <c r="G189" t="s">
         <v>14</v>
       </c>
-      <c r="H189" s="1">
-        <v>-100361461</v>
-      </c>
-      <c r="I189" s="1">
-        <v>25644405</v>
+      <c r="H189" s="2">
+        <v>-100.36146100000001</v>
+      </c>
+      <c r="I189" s="2">
+        <v>25.644404999999999</v>
       </c>
       <c r="J189" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2676</v>
       </c>
@@ -8431,17 +8444,17 @@
       <c r="G190" t="s">
         <v>12</v>
       </c>
-      <c r="H190" s="1">
-        <v>-100220784</v>
-      </c>
-      <c r="I190" s="1">
-        <v>25722447</v>
+      <c r="H190" s="2">
+        <v>-100.22078399999999</v>
+      </c>
+      <c r="I190" s="2">
+        <v>25.722446999999999</v>
       </c>
       <c r="J190" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2179</v>
       </c>
@@ -8463,17 +8476,17 @@
       <c r="G191" t="s">
         <v>14</v>
       </c>
-      <c r="H191" s="1">
-        <v>-100269517</v>
-      </c>
-      <c r="I191" s="1">
-        <v>25769044</v>
+      <c r="H191" s="2">
+        <v>-100.26951699999999</v>
+      </c>
+      <c r="I191" s="2">
+        <v>25.769044000000001</v>
       </c>
       <c r="J191" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2431</v>
       </c>
@@ -8495,17 +8508,17 @@
       <c r="G192" t="s">
         <v>12</v>
       </c>
-      <c r="H192" s="1">
-        <v>-101003007</v>
-      </c>
-      <c r="I192" s="1">
-        <v>22137405</v>
+      <c r="H192" s="2">
+        <v>-101.003007</v>
+      </c>
+      <c r="I192" s="2">
+        <v>22.137405000000001</v>
       </c>
       <c r="J192" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2090</v>
       </c>
@@ -8527,17 +8540,17 @@
       <c r="G193" t="s">
         <v>12</v>
       </c>
-      <c r="H193" s="1">
-        <v>-98238200</v>
-      </c>
-      <c r="I193" s="1">
-        <v>19027573</v>
+      <c r="H193" s="2">
+        <v>-98.238200000000006</v>
+      </c>
+      <c r="I193" s="2">
+        <v>19.027573</v>
       </c>
       <c r="J193" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1801</v>
       </c>
@@ -8559,17 +8572,17 @@
       <c r="G194" t="s">
         <v>14</v>
       </c>
-      <c r="H194" s="1">
-        <v>-98263548</v>
-      </c>
-      <c r="I194" s="1">
-        <v>19017493</v>
+      <c r="H194" s="2">
+        <v>-98.263548</v>
+      </c>
+      <c r="I194" s="2">
+        <v>19.017493000000002</v>
       </c>
       <c r="J194" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1404</v>
       </c>
@@ -8591,17 +8604,17 @@
       <c r="G195" t="s">
         <v>14</v>
       </c>
-      <c r="H195" s="1">
-        <v>-100981002</v>
-      </c>
-      <c r="I195" s="1">
-        <v>25456897</v>
+      <c r="H195" s="2">
+        <v>-100.981002</v>
+      </c>
+      <c r="I195" s="2">
+        <v>25.456897000000001</v>
       </c>
       <c r="J195" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5749</v>
       </c>
@@ -8623,17 +8636,17 @@
       <c r="G196" t="s">
         <v>12</v>
       </c>
-      <c r="H196" s="1">
-        <v>-100409368</v>
-      </c>
-      <c r="I196" s="1">
-        <v>20574103</v>
+      <c r="H196" s="2">
+        <v>-100.409368</v>
+      </c>
+      <c r="I196" s="2">
+        <v>20.574103000000001</v>
       </c>
       <c r="J196" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2733</v>
       </c>
@@ -8655,17 +8668,17 @@
       <c r="G197" t="s">
         <v>14</v>
       </c>
-      <c r="H197" s="1">
-        <v>-100466000</v>
-      </c>
-      <c r="I197" s="1">
-        <v>20629300</v>
+      <c r="H197" s="2">
+        <v>-100.46599999999999</v>
+      </c>
+      <c r="I197" s="2">
+        <v>20.629300000000001</v>
       </c>
       <c r="J197" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3586</v>
       </c>
@@ -8687,17 +8700,17 @@
       <c r="G198" t="s">
         <v>14</v>
       </c>
-      <c r="H198" s="1">
-        <v>-100432884</v>
-      </c>
-      <c r="I198" s="1">
-        <v>20675971</v>
+      <c r="H198" s="2">
+        <v>-100.432884</v>
+      </c>
+      <c r="I198" s="2">
+        <v>20.675971000000001</v>
       </c>
       <c r="J198" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3747</v>
       </c>
@@ -8719,17 +8732,17 @@
       <c r="G199" t="s">
         <v>12</v>
       </c>
-      <c r="H199" s="1">
-        <v>-105238167</v>
-      </c>
-      <c r="I199" s="1">
-        <v>20656394</v>
+      <c r="H199" s="2">
+        <v>-105.238167</v>
+      </c>
+      <c r="I199" s="2">
+        <v>20.656393999999999</v>
       </c>
       <c r="J199" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3853</v>
       </c>
@@ -8751,17 +8764,17 @@
       <c r="G200" t="s">
         <v>14</v>
       </c>
-      <c r="H200" s="1">
-        <v>-98198307</v>
-      </c>
-      <c r="I200" s="1">
-        <v>19019429</v>
+      <c r="H200" s="2">
+        <v>-98.198307</v>
+      </c>
+      <c r="I200" s="2">
+        <v>19.019428999999999</v>
       </c>
       <c r="J200" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3864</v>
       </c>
@@ -8783,17 +8796,17 @@
       <c r="G201" t="s">
         <v>14</v>
       </c>
-      <c r="H201" s="1">
-        <v>-98223853</v>
-      </c>
-      <c r="I201" s="1">
-        <v>19057933</v>
+      <c r="H201" s="2">
+        <v>-98.223853000000005</v>
+      </c>
+      <c r="I201" s="2">
+        <v>19.057932999999998</v>
       </c>
       <c r="J201" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3886</v>
       </c>
@@ -8815,17 +8828,17 @@
       <c r="G202" t="s">
         <v>12</v>
       </c>
-      <c r="H202" s="1">
-        <v>-98236976</v>
-      </c>
-      <c r="I202" s="1">
-        <v>19044997</v>
+      <c r="H202" s="2">
+        <v>-98.236975999999999</v>
+      </c>
+      <c r="I202" s="2">
+        <v>19.044996999999999</v>
       </c>
       <c r="J202" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3061</v>
       </c>
@@ -8847,17 +8860,17 @@
       <c r="G203" t="s">
         <v>12</v>
       </c>
-      <c r="H203" s="1">
-        <v>-98759893</v>
-      </c>
-      <c r="I203" s="1">
-        <v>20091822</v>
+      <c r="H203" s="2">
+        <v>-98.759893000000005</v>
+      </c>
+      <c r="I203" s="2">
+        <v>20.091822000000001</v>
       </c>
       <c r="J203" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3847</v>
       </c>
@@ -8879,17 +8892,17 @@
       <c r="G204" t="s">
         <v>14</v>
       </c>
-      <c r="H204" s="1">
-        <v>-99231100</v>
-      </c>
-      <c r="I204" s="1">
-        <v>19515500</v>
+      <c r="H204" s="2">
+        <v>-99.231099999999998</v>
+      </c>
+      <c r="I204" s="2">
+        <v>19.515499999999999</v>
       </c>
       <c r="J204" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3850</v>
       </c>
@@ -8911,17 +8924,17 @@
       <c r="G205" t="s">
         <v>14</v>
       </c>
-      <c r="H205" s="1">
-        <v>-99232871</v>
-      </c>
-      <c r="I205" s="1">
-        <v>19484682</v>
+      <c r="H205" s="2">
+        <v>-99.232871000000003</v>
+      </c>
+      <c r="I205" s="2">
+        <v>19.484681999999999</v>
       </c>
       <c r="J205" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1032</v>
       </c>
@@ -8943,17 +8956,17 @@
       <c r="G206" t="s">
         <v>12</v>
       </c>
-      <c r="H206" s="1">
-        <v>-99267850</v>
-      </c>
-      <c r="I206" s="1">
-        <v>19515990</v>
+      <c r="H206" s="2">
+        <v>-99.267849999999996</v>
+      </c>
+      <c r="I206" s="2">
+        <v>19.515989999999999</v>
       </c>
       <c r="J206" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3554</v>
       </c>
@@ -8975,17 +8988,17 @@
       <c r="G207" t="s">
         <v>22</v>
       </c>
-      <c r="H207" s="1">
-        <v>-101149172</v>
-      </c>
-      <c r="I207" s="1">
-        <v>19692605</v>
+      <c r="H207" s="2">
+        <v>-101.14917199999999</v>
+      </c>
+      <c r="I207" s="2">
+        <v>19.692605</v>
       </c>
       <c r="J207" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2034</v>
       </c>
@@ -9007,17 +9020,17 @@
       <c r="G208" t="s">
         <v>12</v>
       </c>
-      <c r="H208" s="1">
-        <v>-100274384</v>
-      </c>
-      <c r="I208" s="1">
-        <v>25615802</v>
+      <c r="H208" s="2">
+        <v>-100.274384</v>
+      </c>
+      <c r="I208" s="2">
+        <v>25.615801999999999</v>
       </c>
       <c r="J208" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2044</v>
       </c>
@@ -9039,17 +9052,17 @@
       <c r="G209" t="s">
         <v>14</v>
       </c>
-      <c r="H209" s="1">
-        <v>-100316431</v>
-      </c>
-      <c r="I209" s="1">
-        <v>25639061</v>
+      <c r="H209" s="2">
+        <v>-100.31643099999999</v>
+      </c>
+      <c r="I209" s="2">
+        <v>25.639061000000002</v>
       </c>
       <c r="J209" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3114</v>
       </c>
@@ -9071,17 +9084,17 @@
       <c r="G210" t="s">
         <v>14</v>
       </c>
-      <c r="H210" s="1">
-        <v>-100393262</v>
-      </c>
-      <c r="I210" s="1">
-        <v>25726724</v>
+      <c r="H210" s="2">
+        <v>-100.39326199999999</v>
+      </c>
+      <c r="I210" s="2">
+        <v>25.726724000000001</v>
       </c>
       <c r="J210" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3239</v>
       </c>
@@ -9103,17 +9116,17 @@
       <c r="G211" t="s">
         <v>14</v>
       </c>
-      <c r="H211" s="1">
-        <v>-100405345</v>
-      </c>
-      <c r="I211" s="1">
-        <v>25760080</v>
+      <c r="H211" s="2">
+        <v>-100.405345</v>
+      </c>
+      <c r="I211" s="2">
+        <v>25.760079999999999</v>
       </c>
       <c r="J211" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2344</v>
       </c>
@@ -9135,17 +9148,17 @@
       <c r="G212" t="s">
         <v>12</v>
       </c>
-      <c r="H212" s="1">
-        <v>-99217789</v>
-      </c>
-      <c r="I212" s="1">
-        <v>19450253</v>
+      <c r="H212" s="2">
+        <v>-99.217788999999996</v>
+      </c>
+      <c r="I212" s="2">
+        <v>19.450253</v>
       </c>
       <c r="J212" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3790</v>
       </c>
@@ -9167,17 +9180,17 @@
       <c r="G213" t="s">
         <v>14</v>
       </c>
-      <c r="H213" s="1">
-        <v>-99622794</v>
-      </c>
-      <c r="I213" s="1">
-        <v>19258370</v>
+      <c r="H213" s="2">
+        <v>-99.622793999999999</v>
+      </c>
+      <c r="I213" s="2">
+        <v>19.258369999999999</v>
       </c>
       <c r="J213" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3263</v>
       </c>
@@ -9199,17 +9212,17 @@
       <c r="G214" t="s">
         <v>14</v>
       </c>
-      <c r="H214" s="1">
-        <v>-99591298</v>
-      </c>
-      <c r="I214" s="1">
-        <v>19285644</v>
+      <c r="H214" s="2">
+        <v>-99.591297999999995</v>
+      </c>
+      <c r="I214" s="2">
+        <v>19.285644000000001</v>
       </c>
       <c r="J214" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4048</v>
       </c>
@@ -9231,17 +9244,17 @@
       <c r="G215" t="s">
         <v>14</v>
       </c>
-      <c r="H215" s="1">
-        <v>-89655270</v>
-      </c>
-      <c r="I215" s="1">
-        <v>20994622</v>
+      <c r="H215" s="2">
+        <v>-89.655270000000002</v>
+      </c>
+      <c r="I215" s="2">
+        <v>20.994622</v>
       </c>
       <c r="J215" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4073</v>
       </c>
@@ -9263,17 +9276,17 @@
       <c r="G216" t="s">
         <v>14</v>
       </c>
-      <c r="H216" s="1">
-        <v>-89575965</v>
-      </c>
-      <c r="I216" s="1">
-        <v>20997687</v>
+      <c r="H216" s="2">
+        <v>-89.575964999999997</v>
+      </c>
+      <c r="I216" s="2">
+        <v>20.997686999999999</v>
       </c>
       <c r="J216" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1016</v>
       </c>
@@ -9295,17 +9308,17 @@
       <c r="G217" t="s">
         <v>14</v>
       </c>
-      <c r="H217" s="1">
-        <v>-89604368</v>
-      </c>
-      <c r="I217" s="1">
-        <v>21038733</v>
+      <c r="H217" s="2">
+        <v>-89.604367999999994</v>
+      </c>
+      <c r="I217" s="2">
+        <v>21.038733000000001</v>
       </c>
       <c r="J217" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3069</v>
       </c>
@@ -9327,17 +9340,17 @@
       <c r="G218" t="s">
         <v>12</v>
       </c>
-      <c r="H218" s="1">
-        <v>-109899258</v>
-      </c>
-      <c r="I218" s="1">
-        <v>22903134</v>
+      <c r="H218" s="2">
+        <v>-109.899258</v>
+      </c>
+      <c r="I218" s="2">
+        <v>22.903134000000001</v>
       </c>
       <c r="J218" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2765</v>
       </c>
@@ -9359,17 +9372,17 @@
       <c r="G219" t="s">
         <v>14</v>
       </c>
-      <c r="H219" s="1">
-        <v>-109702278</v>
-      </c>
-      <c r="I219" s="1">
-        <v>23053869</v>
+      <c r="H219" s="2">
+        <v>-109.70227800000001</v>
+      </c>
+      <c r="I219" s="2">
+        <v>23.053868999999999</v>
       </c>
       <c r="J219" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1462</v>
       </c>
@@ -9391,17 +9404,17 @@
       <c r="G220" t="s">
         <v>14</v>
       </c>
-      <c r="H220" s="1">
-        <v>-99503465</v>
-      </c>
-      <c r="I220" s="1">
-        <v>19282699</v>
+      <c r="H220" s="2">
+        <v>-99.503465000000006</v>
+      </c>
+      <c r="I220" s="2">
+        <v>19.282699000000001</v>
       </c>
       <c r="J220" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1195</v>
       </c>
@@ -9423,17 +9436,17 @@
       <c r="G221" t="s">
         <v>14</v>
       </c>
-      <c r="H221" s="1">
-        <v>-101646523</v>
-      </c>
-      <c r="I221" s="1">
-        <v>21147067</v>
+      <c r="H221" s="2">
+        <v>-101.646523</v>
+      </c>
+      <c r="I221" s="2">
+        <v>21.147067</v>
       </c>
       <c r="J221" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1621</v>
       </c>
@@ -9455,17 +9468,17 @@
       <c r="G222" t="s">
         <v>14</v>
       </c>
-      <c r="H222" s="1">
-        <v>-101732763</v>
-      </c>
-      <c r="I222" s="1">
-        <v>21172075</v>
+      <c r="H222" s="2">
+        <v>-101.73276300000001</v>
+      </c>
+      <c r="I222" s="2">
+        <v>21.172075</v>
       </c>
       <c r="J222" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2448</v>
       </c>
@@ -9487,17 +9500,17 @@
       <c r="G223" t="s">
         <v>17</v>
       </c>
-      <c r="H223" s="1">
-        <v>-101607013</v>
-      </c>
-      <c r="I223" s="1">
-        <v>21131902</v>
+      <c r="H223" s="2">
+        <v>-101.60701299999999</v>
+      </c>
+      <c r="I223" s="2">
+        <v>21.131902</v>
       </c>
       <c r="J223" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2377</v>
       </c>
@@ -9519,17 +9532,17 @@
       <c r="G224" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="1">
-        <v>-106418595</v>
-      </c>
-      <c r="I224" s="1">
-        <v>31704679</v>
+      <c r="H224" s="2">
+        <v>-106.418595</v>
+      </c>
+      <c r="I224" s="2">
+        <v>31.704678999999999</v>
       </c>
       <c r="J224" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2033</v>
       </c>
@@ -9551,17 +9564,17 @@
       <c r="G225" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="1">
-        <v>-99080480</v>
-      </c>
-      <c r="I225" s="1">
-        <v>19384001</v>
+      <c r="H225" s="2">
+        <v>-99.080479999999994</v>
+      </c>
+      <c r="I225" s="2">
+        <v>19.384001000000001</v>
       </c>
       <c r="J225" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2347</v>
       </c>
@@ -9583,17 +9596,17 @@
       <c r="G226" t="s">
         <v>12</v>
       </c>
-      <c r="H226" s="1">
-        <v>-99059518</v>
-      </c>
-      <c r="I226" s="1">
-        <v>19307922</v>
+      <c r="H226" s="2">
+        <v>-99.059517999999997</v>
+      </c>
+      <c r="I226" s="2">
+        <v>19.307922000000001</v>
       </c>
       <c r="J226" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4628</v>
       </c>
@@ -9615,17 +9628,17 @@
       <c r="G227" t="s">
         <v>17</v>
       </c>
-      <c r="H227" s="1">
-        <v>-99076161</v>
-      </c>
-      <c r="I227" s="1">
-        <v>19314046</v>
+      <c r="H227" s="2">
+        <v>-99.076160999999999</v>
+      </c>
+      <c r="I227" s="2">
+        <v>19.314046000000001</v>
       </c>
       <c r="J227" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1015</v>
       </c>
@@ -9647,17 +9660,17 @@
       <c r="G228" t="s">
         <v>14</v>
       </c>
-      <c r="H228" s="1">
-        <v>-101366574</v>
-      </c>
-      <c r="I228" s="1">
-        <v>20683793</v>
+      <c r="H228" s="2">
+        <v>-101.366574</v>
+      </c>
+      <c r="I228" s="2">
+        <v>20.683793000000001</v>
       </c>
       <c r="J228" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2382</v>
       </c>
@@ -9679,17 +9692,17 @@
       <c r="G229" t="s">
         <v>14</v>
       </c>
-      <c r="H229" s="1">
-        <v>-99274107</v>
-      </c>
-      <c r="I229" s="1">
-        <v>19405671</v>
+      <c r="H229" s="2">
+        <v>-99.274107000000001</v>
+      </c>
+      <c r="I229" s="2">
+        <v>19.405671000000002</v>
       </c>
       <c r="J229" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3504</v>
       </c>
@@ -9711,17 +9724,17 @@
       <c r="G230" t="s">
         <v>12</v>
       </c>
-      <c r="H230" s="1">
-        <v>-99289084</v>
-      </c>
-      <c r="I230" s="1">
-        <v>19398534</v>
+      <c r="H230" s="2">
+        <v>-99.289084000000003</v>
+      </c>
+      <c r="I230" s="2">
+        <v>19.398534000000001</v>
       </c>
       <c r="J230" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2053</v>
       </c>
@@ -9743,17 +9756,17 @@
       <c r="G231" t="s">
         <v>14</v>
       </c>
-      <c r="H231" s="1">
-        <v>-111021716</v>
-      </c>
-      <c r="I231" s="1">
-        <v>29082631</v>
+      <c r="H231" s="2">
+        <v>-111.021716</v>
+      </c>
+      <c r="I231" s="2">
+        <v>29.082630999999999</v>
       </c>
       <c r="J231" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3877</v>
       </c>
@@ -9775,17 +9788,17 @@
       <c r="G232" t="s">
         <v>14</v>
       </c>
-      <c r="H232" s="1">
-        <v>-99143551</v>
-      </c>
-      <c r="I232" s="1">
-        <v>19506268</v>
+      <c r="H232" s="2">
+        <v>-99.143551000000002</v>
+      </c>
+      <c r="I232" s="2">
+        <v>19.506267999999999</v>
       </c>
       <c r="J232" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2345</v>
       </c>
@@ -9807,17 +9820,17 @@
       <c r="G233" t="s">
         <v>12</v>
       </c>
-      <c r="H233" s="1">
-        <v>-99120707</v>
-      </c>
-      <c r="I233" s="1">
-        <v>19472103</v>
+      <c r="H233" s="2">
+        <v>-99.120706999999996</v>
+      </c>
+      <c r="I233" s="2">
+        <v>19.472103000000001</v>
       </c>
       <c r="J233" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4547</v>
       </c>
@@ -9839,17 +9852,17 @@
       <c r="G234" t="s">
         <v>12</v>
       </c>
-      <c r="H234" s="1">
-        <v>-99095700</v>
-      </c>
-      <c r="I234" s="1">
-        <v>19479600</v>
+      <c r="H234" s="2">
+        <v>-99.095699999999994</v>
+      </c>
+      <c r="I234" s="2">
+        <v>19.479600000000001</v>
       </c>
       <c r="J234" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2076</v>
       </c>
@@ -9871,17 +9884,17 @@
       <c r="G235" t="s">
         <v>12</v>
       </c>
-      <c r="H235" s="1">
-        <v>-100240048</v>
-      </c>
-      <c r="I235" s="1">
-        <v>25691049</v>
+      <c r="H235" s="2">
+        <v>-100.240048</v>
+      </c>
+      <c r="I235" s="2">
+        <v>25.691049</v>
       </c>
       <c r="J235" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1833</v>
       </c>
@@ -9903,17 +9916,17 @@
       <c r="G236" t="s">
         <v>14</v>
       </c>
-      <c r="H236" s="1">
-        <v>-100241762</v>
-      </c>
-      <c r="I236" s="1">
-        <v>25665568</v>
+      <c r="H236" s="2">
+        <v>-100.24176199999999</v>
+      </c>
+      <c r="I236" s="2">
+        <v>25.665568</v>
       </c>
       <c r="J236" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3861</v>
       </c>
@@ -9935,17 +9948,17 @@
       <c r="G237" t="s">
         <v>14</v>
       </c>
-      <c r="H237" s="1">
-        <v>-103310090</v>
-      </c>
-      <c r="I237" s="1">
-        <v>20648793</v>
+      <c r="H237" s="2">
+        <v>-103.31009</v>
+      </c>
+      <c r="I237" s="2">
+        <v>20.648793000000001</v>
       </c>
       <c r="J237" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3909</v>
       </c>
@@ -9967,17 +9980,17 @@
       <c r="G238" t="s">
         <v>14</v>
       </c>
-      <c r="H238" s="1">
-        <v>-96959626</v>
-      </c>
-      <c r="I238" s="1">
-        <v>18902475</v>
+      <c r="H238" s="2">
+        <v>-96.959626</v>
+      </c>
+      <c r="I238" s="2">
+        <v>18.902474999999999</v>
       </c>
       <c r="J238" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>5765</v>
       </c>
@@ -9999,17 +10012,17 @@
       <c r="G239" t="s">
         <v>12</v>
       </c>
-      <c r="H239" s="1">
-        <v>-99022137</v>
-      </c>
-      <c r="I239" s="1">
-        <v>19580031</v>
+      <c r="H239" s="2">
+        <v>-99.022137000000001</v>
+      </c>
+      <c r="I239" s="2">
+        <v>19.580031000000002</v>
       </c>
       <c r="J239" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1203</v>
       </c>
@@ -10031,17 +10044,17 @@
       <c r="G240" t="s">
         <v>12</v>
       </c>
-      <c r="H240" s="1">
-        <v>-99019212</v>
-      </c>
-      <c r="I240" s="1">
-        <v>19557934</v>
+      <c r="H240" s="2">
+        <v>-99.019211999999996</v>
+      </c>
+      <c r="I240" s="2">
+        <v>19.557933999999999</v>
       </c>
       <c r="J240" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2379</v>
       </c>
@@ -10063,17 +10076,17 @@
       <c r="G241" t="s">
         <v>12</v>
       </c>
-      <c r="H241" s="1">
-        <v>-107409212</v>
-      </c>
-      <c r="I241" s="1">
-        <v>24814763</v>
+      <c r="H241" s="2">
+        <v>-107.409212</v>
+      </c>
+      <c r="I241" s="2">
+        <v>24.814762999999999</v>
       </c>
       <c r="J241" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1045</v>
       </c>
@@ -10095,17 +10108,17 @@
       <c r="G242" t="s">
         <v>14</v>
       </c>
-      <c r="H242" s="1">
-        <v>-99237813</v>
-      </c>
-      <c r="I242" s="1">
-        <v>18956004</v>
+      <c r="H242" s="2">
+        <v>-99.237813000000003</v>
+      </c>
+      <c r="I242" s="2">
+        <v>18.956004</v>
       </c>
       <c r="J242" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2446</v>
       </c>
@@ -10127,17 +10140,17 @@
       <c r="G243" t="s">
         <v>173</v>
       </c>
-      <c r="H243" s="1">
-        <v>-99197333</v>
-      </c>
-      <c r="I243" s="1">
-        <v>18933541</v>
+      <c r="H243" s="2">
+        <v>-99.197333</v>
+      </c>
+      <c r="I243" s="2">
+        <v>18.933541000000002</v>
       </c>
       <c r="J243" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4157</v>
       </c>
@@ -10159,17 +10172,17 @@
       <c r="G244" t="s">
         <v>12</v>
       </c>
-      <c r="H244" s="1">
-        <v>-99194744</v>
-      </c>
-      <c r="I244" s="1">
-        <v>19646802</v>
+      <c r="H244" s="2">
+        <v>-99.194744</v>
+      </c>
+      <c r="I244" s="2">
+        <v>19.646802000000001</v>
       </c>
       <c r="J244" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4154</v>
       </c>
@@ -10191,17 +10204,17 @@
       <c r="G245" t="s">
         <v>12</v>
       </c>
-      <c r="H245" s="1">
-        <v>-99187627</v>
-      </c>
-      <c r="I245" s="1">
-        <v>19605325</v>
+      <c r="H245" s="2">
+        <v>-99.187627000000006</v>
+      </c>
+      <c r="I245" s="2">
+        <v>19.605325000000001</v>
       </c>
       <c r="J245" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2284</v>
       </c>
@@ -10223,17 +10236,17 @@
       <c r="G246" t="s">
         <v>14</v>
       </c>
-      <c r="H246" s="1">
-        <v>-99225021</v>
-      </c>
-      <c r="I246" s="1">
-        <v>19688806</v>
+      <c r="H246" s="2">
+        <v>-99.225020999999998</v>
+      </c>
+      <c r="I246" s="2">
+        <v>19.688806</v>
       </c>
       <c r="J246" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3846</v>
       </c>
@@ -10255,17 +10268,17 @@
       <c r="G247" t="s">
         <v>12</v>
       </c>
-      <c r="H247" s="1">
-        <v>-99153082</v>
-      </c>
-      <c r="I247" s="1">
-        <v>19443515</v>
+      <c r="H247" s="2">
+        <v>-99.153081999999998</v>
+      </c>
+      <c r="I247" s="2">
+        <v>19.443515000000001</v>
       </c>
       <c r="J247" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1513</v>
       </c>
@@ -10287,17 +10300,17 @@
       <c r="G248" t="s">
         <v>65</v>
       </c>
-      <c r="H248" s="1">
-        <v>-99130651</v>
-      </c>
-      <c r="I248" s="1">
-        <v>19419428</v>
+      <c r="H248" s="2">
+        <v>-99.130651</v>
+      </c>
+      <c r="I248" s="2">
+        <v>19.419428</v>
       </c>
       <c r="J248" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3858</v>
       </c>
@@ -10319,17 +10332,17 @@
       <c r="G249" t="s">
         <v>14</v>
       </c>
-      <c r="H249" s="1">
-        <v>-99288704</v>
-      </c>
-      <c r="I249" s="1">
-        <v>19364323</v>
+      <c r="H249" s="2">
+        <v>-99.288703999999996</v>
+      </c>
+      <c r="I249" s="2">
+        <v>19.364322999999999</v>
       </c>
       <c r="J249" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3848</v>
       </c>
@@ -10351,17 +10364,17 @@
       <c r="G250" t="s">
         <v>12</v>
       </c>
-      <c r="H250" s="1">
-        <v>-99182582</v>
-      </c>
-      <c r="I250" s="1">
-        <v>19345195</v>
+      <c r="H250" s="2">
+        <v>-99.182581999999996</v>
+      </c>
+      <c r="I250" s="2">
+        <v>19.345195</v>
       </c>
       <c r="J250" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3863</v>
       </c>
@@ -10383,17 +10396,17 @@
       <c r="G251" t="s">
         <v>14</v>
       </c>
-      <c r="H251" s="1">
-        <v>-99187261</v>
-      </c>
-      <c r="I251" s="1">
-        <v>19306272</v>
+      <c r="H251" s="2">
+        <v>-99.187261000000007</v>
+      </c>
+      <c r="I251" s="2">
+        <v>19.306272</v>
       </c>
       <c r="J251" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2464</v>
       </c>
@@ -10415,17 +10428,17 @@
       <c r="G252" t="s">
         <v>12</v>
       </c>
-      <c r="H252" s="1">
-        <v>-99125500</v>
-      </c>
-      <c r="I252" s="1">
-        <v>19317789</v>
+      <c r="H252" s="2">
+        <v>-99.125500000000002</v>
+      </c>
+      <c r="I252" s="2">
+        <v>19.317789000000001</v>
       </c>
       <c r="J252" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1054</v>
       </c>
@@ -10447,17 +10460,17 @@
       <c r="G253" t="s">
         <v>14</v>
       </c>
-      <c r="H253" s="1">
-        <v>-103720535</v>
-      </c>
-      <c r="I253" s="1">
-        <v>19257343</v>
+      <c r="H253" s="2">
+        <v>-103.720535</v>
+      </c>
+      <c r="I253" s="2">
+        <v>19.257342999999999</v>
       </c>
       <c r="J253" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4018</v>
       </c>
@@ -10479,17 +10492,17 @@
       <c r="G254" t="s">
         <v>12</v>
       </c>
-      <c r="H254" s="1">
-        <v>-99123810</v>
-      </c>
-      <c r="I254" s="1">
-        <v>19629970</v>
+      <c r="H254" s="2">
+        <v>-99.123810000000006</v>
+      </c>
+      <c r="I254" s="2">
+        <v>19.62997</v>
       </c>
       <c r="J254" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1656</v>
       </c>
@@ -10511,17 +10524,17 @@
       <c r="G255" t="s">
         <v>306</v>
       </c>
-      <c r="H255" s="1">
-        <v>-106130459</v>
-      </c>
-      <c r="I255" s="1">
-        <v>28665604</v>
+      <c r="H255" s="2">
+        <v>-106.130459</v>
+      </c>
+      <c r="I255" s="2">
+        <v>28.665603999999998</v>
       </c>
       <c r="J255" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>3293</v>
       </c>
@@ -10543,17 +10556,17 @@
       <c r="G256" t="s">
         <v>14</v>
       </c>
-      <c r="H256" s="1">
-        <v>-92946000</v>
-      </c>
-      <c r="I256" s="1">
-        <v>17992100</v>
+      <c r="H256" s="2">
+        <v>-92.945999999999998</v>
+      </c>
+      <c r="I256" s="2">
+        <v>17.992100000000001</v>
       </c>
       <c r="J256" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2380</v>
       </c>
@@ -10575,17 +10588,17 @@
       <c r="G257" t="s">
         <v>12</v>
       </c>
-      <c r="H257" s="1">
-        <v>-109928448</v>
-      </c>
-      <c r="I257" s="1">
-        <v>27516563</v>
+      <c r="H257" s="2">
+        <v>-109.928448</v>
+      </c>
+      <c r="I257" s="2">
+        <v>27.516563000000001</v>
       </c>
       <c r="J257" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2463</v>
       </c>
@@ -10607,17 +10620,17 @@
       <c r="G258" t="s">
         <v>12</v>
       </c>
-      <c r="H258" s="1">
-        <v>-96112189</v>
-      </c>
-      <c r="I258" s="1">
-        <v>19156554</v>
+      <c r="H258" s="2">
+        <v>-96.112189000000001</v>
+      </c>
+      <c r="I258" s="2">
+        <v>19.156554</v>
       </c>
       <c r="J258" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>3845</v>
       </c>
@@ -10639,17 +10652,17 @@
       <c r="G259" t="s">
         <v>14</v>
       </c>
-      <c r="H259" s="1">
-        <v>-99164148</v>
-      </c>
-      <c r="I259" s="1">
-        <v>19368587</v>
+      <c r="H259" s="2">
+        <v>-99.164147999999997</v>
+      </c>
+      <c r="I259" s="2">
+        <v>19.368587000000002</v>
       </c>
       <c r="J259" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2670</v>
       </c>
@@ -10671,17 +10684,17 @@
       <c r="G260" t="s">
         <v>12</v>
       </c>
-      <c r="H260" s="1">
-        <v>-99141224</v>
-      </c>
-      <c r="I260" s="1">
-        <v>19380229</v>
+      <c r="H260" s="2">
+        <v>-99.141223999999994</v>
+      </c>
+      <c r="I260" s="2">
+        <v>19.380229</v>
       </c>
       <c r="J260" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2689</v>
       </c>
@@ -10703,17 +10716,17 @@
       <c r="G261" t="s">
         <v>14</v>
       </c>
-      <c r="H261" s="1">
-        <v>-99176311</v>
-      </c>
-      <c r="I261" s="1">
-        <v>19371627</v>
+      <c r="H261" s="2">
+        <v>-99.176310999999998</v>
+      </c>
+      <c r="I261" s="2">
+        <v>19.371627</v>
       </c>
       <c r="J261" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2384</v>
       </c>
@@ -10735,17 +10748,17 @@
       <c r="G262" t="s">
         <v>12</v>
       </c>
-      <c r="H262" s="1">
-        <v>-86833692</v>
-      </c>
-      <c r="I262" s="1">
-        <v>21154319</v>
+      <c r="H262" s="2">
+        <v>-86.833691999999999</v>
+      </c>
+      <c r="I262" s="2">
+        <v>21.154319000000001</v>
       </c>
       <c r="J262" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>3505</v>
       </c>
@@ -10767,17 +10780,17 @@
       <c r="G263" t="s">
         <v>14</v>
       </c>
-      <c r="H263" s="1">
-        <v>-86875835</v>
-      </c>
-      <c r="I263" s="1">
-        <v>21125694</v>
+      <c r="H263" s="2">
+        <v>-86.875834999999995</v>
+      </c>
+      <c r="I263" s="2">
+        <v>21.125693999999999</v>
       </c>
       <c r="J263" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1425</v>
       </c>
@@ -10799,17 +10812,17 @@
       <c r="G264" t="s">
         <v>12</v>
       </c>
-      <c r="H264" s="1">
-        <v>-105277745</v>
-      </c>
-      <c r="I264" s="1">
-        <v>20722282</v>
+      <c r="H264" s="2">
+        <v>-105.277745</v>
+      </c>
+      <c r="I264" s="2">
+        <v>20.722282</v>
       </c>
       <c r="J264" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>3862</v>
       </c>
@@ -10831,17 +10844,17 @@
       <c r="G265" t="s">
         <v>12</v>
       </c>
-      <c r="H265" s="1">
-        <v>-99192469</v>
-      </c>
-      <c r="I265" s="1">
-        <v>19472928</v>
+      <c r="H265" s="2">
+        <v>-99.192469000000003</v>
+      </c>
+      <c r="I265" s="2">
+        <v>19.472928</v>
       </c>
       <c r="J265" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2466</v>
       </c>
@@ -10863,17 +10876,17 @@
       <c r="G266" t="s">
         <v>12</v>
       </c>
-      <c r="H266" s="1">
-        <v>-99164282</v>
-      </c>
-      <c r="I266" s="1">
-        <v>19471133</v>
+      <c r="H266" s="2">
+        <v>-99.164282</v>
+      </c>
+      <c r="I266" s="2">
+        <v>19.471132999999998</v>
       </c>
       <c r="J266" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1584</v>
       </c>
@@ -10895,17 +10908,17 @@
       <c r="G267" t="s">
         <v>14</v>
       </c>
-      <c r="H267" s="1">
-        <v>-99290336</v>
-      </c>
-      <c r="I267" s="1">
-        <v>19552911</v>
+      <c r="H267" s="2">
+        <v>-99.290335999999996</v>
+      </c>
+      <c r="I267" s="2">
+        <v>19.552911000000002</v>
       </c>
       <c r="J267" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>3852</v>
       </c>
@@ -10927,17 +10940,17 @@
       <c r="G268" t="s">
         <v>14</v>
       </c>
-      <c r="H268" s="1">
-        <v>-99194069</v>
-      </c>
-      <c r="I268" s="1">
-        <v>19369740</v>
+      <c r="H268" s="2">
+        <v>-99.194068999999999</v>
+      </c>
+      <c r="I268" s="2">
+        <v>19.36974</v>
       </c>
       <c r="J268" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>3876</v>
       </c>
@@ -10959,17 +10972,17 @@
       <c r="G269" t="s">
         <v>14</v>
       </c>
-      <c r="H269" s="1">
-        <v>-99215397</v>
-      </c>
-      <c r="I269" s="1">
-        <v>19352766</v>
+      <c r="H269" s="2">
+        <v>-99.215396999999996</v>
+      </c>
+      <c r="I269" s="2">
+        <v>19.352765999999999</v>
       </c>
       <c r="J269" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1770</v>
       </c>
@@ -10991,17 +11004,17 @@
       <c r="G270" t="s">
         <v>12</v>
       </c>
-      <c r="H270" s="1">
-        <v>-99254174</v>
-      </c>
-      <c r="I270" s="1">
-        <v>19377912</v>
+      <c r="H270" s="2">
+        <v>-99.254174000000006</v>
+      </c>
+      <c r="I270" s="2">
+        <v>19.377911999999998</v>
       </c>
       <c r="J270" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1083</v>
       </c>
@@ -11023,17 +11036,17 @@
       <c r="G271" t="s">
         <v>65</v>
       </c>
-      <c r="H271" s="1">
-        <v>-99190687</v>
-      </c>
-      <c r="I271" s="1">
-        <v>19361265</v>
+      <c r="H271" s="2">
+        <v>-99.190686999999997</v>
+      </c>
+      <c r="I271" s="2">
+        <v>19.361265</v>
       </c>
       <c r="J271" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2346</v>
       </c>
@@ -11055,17 +11068,17 @@
       <c r="G272" t="s">
         <v>12</v>
       </c>
-      <c r="H272" s="1">
-        <v>-102295685</v>
-      </c>
-      <c r="I272" s="1">
-        <v>21923979</v>
+      <c r="H272" s="2">
+        <v>-102.29568500000001</v>
+      </c>
+      <c r="I272" s="2">
+        <v>21.923978999999999</v>
       </c>
       <c r="J272" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2349</v>
       </c>
@@ -11087,17 +11100,17 @@
       <c r="G273" t="s">
         <v>12</v>
       </c>
-      <c r="H273" s="1">
-        <v>-99847305</v>
-      </c>
-      <c r="I273" s="1">
-        <v>16844695</v>
+      <c r="H273" s="2">
+        <v>-99.847305000000006</v>
+      </c>
+      <c r="I273" s="2">
+        <v>16.844695000000002</v>
       </c>
       <c r="J273" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1067</v>
       </c>
@@ -11119,17 +11132,17 @@
       <c r="G274" t="s">
         <v>12</v>
       </c>
-      <c r="H274" s="1">
-        <v>-99809303</v>
-      </c>
-      <c r="I274" s="1">
-        <v>16797157</v>
+      <c r="H274" s="2">
+        <v>-99.809303</v>
+      </c>
+      <c r="I274" s="2">
+        <v>16.797156999999999</v>
       </c>
       <c r="J274" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>3533</v>
       </c>
@@ -11151,17 +11164,17 @@
       <c r="G275" t="s">
         <v>475</v>
       </c>
-      <c r="H275" s="1">
-        <v>-104691</v>
-      </c>
-      <c r="I275" s="1">
-        <v>240130</v>
+      <c r="H275" s="2">
+        <v>-0.10469100000000001</v>
+      </c>
+      <c r="I275" s="2">
+        <v>0.24013000000000001</v>
       </c>
       <c r="J275" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>4719</v>
       </c>
@@ -11183,17 +11196,17 @@
       <c r="G276" t="s">
         <v>475</v>
       </c>
-      <c r="H276" s="1">
-        <v>-92660128</v>
-      </c>
-      <c r="I276" s="1">
-        <v>16744379</v>
+      <c r="H276" s="2">
+        <v>-92.660128</v>
+      </c>
+      <c r="I276" s="2">
+        <v>16.744378999999999</v>
       </c>
       <c r="J276" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3857</v>
       </c>
@@ -11215,17 +11228,17 @@
       <c r="G277" t="s">
         <v>160</v>
       </c>
-      <c r="H277" s="1">
-        <v>-99123779</v>
-      </c>
-      <c r="I277" s="1">
-        <v>19292962</v>
+      <c r="H277" s="2">
+        <v>-99.123778999999999</v>
+      </c>
+      <c r="I277" s="2">
+        <v>19.292961999999999</v>
       </c>
       <c r="J277" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>383</v>
       </c>
@@ -11247,11 +11260,11 @@
       <c r="G278" t="s">
         <v>173</v>
       </c>
-      <c r="H278" s="1">
-        <v>-99142341</v>
-      </c>
-      <c r="I278" s="1">
-        <v>19456436</v>
+      <c r="H278" s="2">
+        <v>-99.142341000000002</v>
+      </c>
+      <c r="I278" s="2">
+        <v>19.456436</v>
       </c>
       <c r="J278" t="s">
         <v>472</v>
